--- a/statistics_files/excel_tools/convert_raw_to_2022_fiscal.xlsx
+++ b/statistics_files/excel_tools/convert_raw_to_2022_fiscal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\excel_tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768AFF8E-AD46-4850-9075-3F1A947937EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094EDAB3-EA60-4824-AED3-3279E3C2C03E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11295" xr2:uid="{2E10FC3C-0EF9-47F1-8609-B63D531A3ED8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11295" activeTab="1" xr2:uid="{2E10FC3C-0EF9-47F1-8609-B63D531A3ED8}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
@@ -860,7 +860,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47752BB-4791-455D-A170-B218678F7716}">
   <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -939,405 +941,2926 @@
       <c r="A2" t="s">
         <v>23</v>
       </c>
+      <c r="B2">
+        <v>59406</v>
+      </c>
+      <c r="C2">
+        <v>59514</v>
+      </c>
+      <c r="D2">
+        <v>355</v>
+      </c>
+      <c r="E2">
+        <v>247</v>
+      </c>
+      <c r="F2">
+        <v>58381</v>
+      </c>
+      <c r="G2">
+        <v>5244</v>
+      </c>
+      <c r="H2">
+        <v>3902</v>
+      </c>
+      <c r="I2">
+        <v>1342</v>
+      </c>
+      <c r="J2">
+        <v>10018</v>
+      </c>
+      <c r="K2">
+        <v>2779</v>
+      </c>
+      <c r="L2">
+        <v>2465</v>
+      </c>
+      <c r="M2">
+        <v>509</v>
+      </c>
+      <c r="N2">
+        <v>6611</v>
+      </c>
+      <c r="O2">
+        <v>29</v>
+      </c>
+      <c r="P2">
+        <v>74</v>
+      </c>
+      <c r="Q2">
+        <v>88</v>
+      </c>
+      <c r="R2">
+        <v>777</v>
+      </c>
+      <c r="S2">
+        <v>1040</v>
+      </c>
       <c r="T2" t="s">
         <v>24</v>
       </c>
+      <c r="U2">
+        <v>403036</v>
+      </c>
       <c r="V2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="3"/>
+      <c r="W2" s="3">
+        <v>582</v>
+      </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
+      <c r="B3">
+        <v>26795</v>
+      </c>
+      <c r="C3">
+        <v>26375</v>
+      </c>
+      <c r="D3">
+        <v>130</v>
+      </c>
+      <c r="E3">
+        <v>550</v>
+      </c>
+      <c r="F3">
+        <v>25984</v>
+      </c>
+      <c r="G3">
+        <v>2365</v>
+      </c>
+      <c r="H3">
+        <v>1857</v>
+      </c>
+      <c r="I3">
+        <v>508</v>
+      </c>
+      <c r="J3">
+        <v>2826</v>
+      </c>
+      <c r="K3">
+        <v>1328</v>
+      </c>
+      <c r="L3">
+        <v>1036</v>
+      </c>
+      <c r="M3">
+        <v>265</v>
+      </c>
+      <c r="N3">
+        <v>3761</v>
+      </c>
+      <c r="O3">
+        <v>18</v>
+      </c>
+      <c r="P3">
+        <v>41</v>
+      </c>
+      <c r="Q3">
+        <v>35</v>
+      </c>
+      <c r="R3">
+        <v>370</v>
+      </c>
+      <c r="S3">
+        <v>365</v>
+      </c>
       <c r="V3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="W3" s="3"/>
+      <c r="W3" s="3">
+        <v>324</v>
+      </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
+      <c r="B4">
+        <v>64792</v>
+      </c>
+      <c r="C4">
+        <v>65083</v>
+      </c>
+      <c r="D4">
+        <v>614</v>
+      </c>
+      <c r="E4">
+        <v>323</v>
+      </c>
+      <c r="F4">
+        <v>62316</v>
+      </c>
+      <c r="G4">
+        <v>7993</v>
+      </c>
+      <c r="H4">
+        <v>5905</v>
+      </c>
+      <c r="I4">
+        <v>2088</v>
+      </c>
+      <c r="J4">
+        <v>13235</v>
+      </c>
+      <c r="K4">
+        <v>3811</v>
+      </c>
+      <c r="L4">
+        <v>4179</v>
+      </c>
+      <c r="M4">
+        <v>807</v>
+      </c>
+      <c r="N4">
+        <v>6365</v>
+      </c>
+      <c r="O4">
+        <v>26</v>
+      </c>
+      <c r="P4">
+        <v>122</v>
+      </c>
+      <c r="Q4">
+        <v>89</v>
+      </c>
+      <c r="R4">
+        <v>646</v>
+      </c>
+      <c r="S4">
+        <v>850</v>
+      </c>
       <c r="V4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="W4" s="3"/>
+      <c r="W4" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
+      <c r="B5">
+        <v>12202</v>
+      </c>
+      <c r="C5">
+        <v>12255</v>
+      </c>
+      <c r="D5">
+        <v>56</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>11978</v>
+      </c>
+      <c r="G5">
+        <v>143</v>
+      </c>
+      <c r="H5">
+        <v>84</v>
+      </c>
+      <c r="I5">
+        <v>59</v>
+      </c>
+      <c r="J5">
+        <v>239</v>
+      </c>
+      <c r="K5">
+        <v>78</v>
+      </c>
+      <c r="L5">
+        <v>65</v>
+      </c>
+      <c r="M5">
+        <v>12</v>
+      </c>
+      <c r="N5">
+        <v>154</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>73</v>
+      </c>
+      <c r="S5">
+        <v>3</v>
+      </c>
       <c r="V5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="W5" s="3"/>
+      <c r="W5" s="3">
+        <v>1189</v>
+      </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
+      <c r="B6">
+        <v>59392</v>
+      </c>
+      <c r="C6">
+        <v>59696</v>
+      </c>
+      <c r="D6">
+        <v>394</v>
+      </c>
+      <c r="E6">
+        <v>90</v>
+      </c>
+      <c r="F6">
+        <v>57544</v>
+      </c>
+      <c r="G6">
+        <v>4721</v>
+      </c>
+      <c r="H6">
+        <v>3581</v>
+      </c>
+      <c r="I6">
+        <v>1140</v>
+      </c>
+      <c r="J6">
+        <v>9549</v>
+      </c>
+      <c r="K6">
+        <v>2333</v>
+      </c>
+      <c r="L6">
+        <v>2385</v>
+      </c>
+      <c r="M6">
+        <v>561</v>
+      </c>
+      <c r="N6">
+        <v>12003</v>
+      </c>
+      <c r="O6">
+        <v>28</v>
+      </c>
+      <c r="P6">
+        <v>82</v>
+      </c>
+      <c r="Q6">
+        <v>106</v>
+      </c>
+      <c r="R6">
+        <v>845</v>
+      </c>
+      <c r="S6">
+        <v>892</v>
+      </c>
       <c r="V6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W6" s="3"/>
+      <c r="W6" s="3">
+        <v>146</v>
+      </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
+      <c r="B7">
+        <v>14674</v>
+      </c>
+      <c r="C7">
+        <v>14707</v>
+      </c>
+      <c r="D7">
+        <v>42</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>14606</v>
+      </c>
+      <c r="G7">
+        <v>633</v>
+      </c>
+      <c r="H7">
+        <v>531</v>
+      </c>
+      <c r="I7">
+        <v>102</v>
+      </c>
+      <c r="J7">
+        <v>991</v>
+      </c>
+      <c r="K7">
+        <v>455</v>
+      </c>
+      <c r="L7">
+        <v>178</v>
+      </c>
+      <c r="M7">
+        <v>66</v>
+      </c>
+      <c r="N7">
+        <v>604</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <v>7</v>
+      </c>
+      <c r="Q7">
+        <v>20</v>
+      </c>
+      <c r="R7">
+        <v>129</v>
+      </c>
+      <c r="S7">
+        <v>131</v>
+      </c>
       <c r="V7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="W7" s="3"/>
+      <c r="W7" s="3">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
+      <c r="B8">
+        <v>9762</v>
+      </c>
+      <c r="C8">
+        <v>10034</v>
+      </c>
+      <c r="D8">
+        <v>319</v>
+      </c>
+      <c r="E8">
+        <v>47</v>
+      </c>
+      <c r="F8">
+        <v>9889</v>
+      </c>
+      <c r="G8">
+        <v>685</v>
+      </c>
+      <c r="H8">
+        <v>599</v>
+      </c>
+      <c r="I8">
+        <v>86</v>
+      </c>
+      <c r="J8">
+        <v>993</v>
+      </c>
+      <c r="K8">
+        <v>466</v>
+      </c>
+      <c r="L8">
+        <v>219</v>
+      </c>
+      <c r="M8">
+        <v>93</v>
+      </c>
+      <c r="N8">
+        <v>615</v>
+      </c>
+      <c r="O8">
+        <v>10</v>
+      </c>
+      <c r="P8">
+        <v>7</v>
+      </c>
+      <c r="Q8">
+        <v>6</v>
+      </c>
+      <c r="R8">
+        <v>110</v>
+      </c>
+      <c r="S8">
+        <v>110</v>
+      </c>
       <c r="V8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W8" s="3"/>
+      <c r="W8" s="3">
+        <v>515</v>
+      </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
+      <c r="B9">
+        <v>7869</v>
+      </c>
+      <c r="C9">
+        <v>7889</v>
+      </c>
+      <c r="D9">
+        <v>34</v>
+      </c>
+      <c r="E9">
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <v>7775</v>
+      </c>
+      <c r="G9">
+        <v>217</v>
+      </c>
+      <c r="H9">
+        <v>192</v>
+      </c>
+      <c r="I9">
+        <v>25</v>
+      </c>
+      <c r="J9">
+        <v>306</v>
+      </c>
+      <c r="K9">
+        <v>174</v>
+      </c>
+      <c r="L9">
+        <v>43</v>
+      </c>
+      <c r="M9">
+        <v>35</v>
+      </c>
+      <c r="N9">
+        <v>203</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>6</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>54</v>
+      </c>
+      <c r="S9">
+        <v>15</v>
+      </c>
       <c r="V9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W9" s="3"/>
+      <c r="W9" s="3">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
+      <c r="B10">
+        <v>5216</v>
+      </c>
+      <c r="C10">
+        <v>5221</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>5149</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>52</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>133</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>24</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
       <c r="V10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W10" s="3"/>
+      <c r="W10" s="3">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
+      <c r="B11">
+        <v>362</v>
+      </c>
+      <c r="C11">
+        <v>361</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>361</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>40</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
       <c r="V11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="W11" s="3"/>
+      <c r="W11" s="3">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
+      <c r="B12">
+        <v>2570</v>
+      </c>
+      <c r="C12">
+        <v>2574</v>
+      </c>
+      <c r="D12">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>2520</v>
+      </c>
+      <c r="G12">
+        <v>129</v>
+      </c>
+      <c r="H12">
+        <v>110</v>
+      </c>
+      <c r="I12">
+        <v>19</v>
+      </c>
+      <c r="J12">
+        <v>254</v>
+      </c>
+      <c r="K12">
+        <v>96</v>
+      </c>
+      <c r="L12">
+        <v>15</v>
+      </c>
+      <c r="M12">
+        <v>16</v>
+      </c>
+      <c r="N12">
+        <v>509</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="P12">
+        <v>4</v>
+      </c>
+      <c r="Q12">
+        <v>5</v>
+      </c>
+      <c r="R12">
+        <v>32</v>
+      </c>
+      <c r="S12">
+        <v>37</v>
+      </c>
       <c r="V12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="W12" s="3"/>
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
+      <c r="B13">
+        <v>4963</v>
+      </c>
+      <c r="C13">
+        <v>5000</v>
+      </c>
+      <c r="D13">
+        <v>61</v>
+      </c>
+      <c r="E13">
+        <v>24</v>
+      </c>
+      <c r="F13">
+        <v>4898</v>
+      </c>
+      <c r="G13">
+        <v>320</v>
+      </c>
+      <c r="H13">
+        <v>296</v>
+      </c>
+      <c r="I13">
+        <v>24</v>
+      </c>
+      <c r="J13">
+        <v>720</v>
+      </c>
+      <c r="K13">
+        <v>230</v>
+      </c>
+      <c r="L13">
+        <v>90</v>
+      </c>
+      <c r="M13">
+        <v>46</v>
+      </c>
+      <c r="N13">
+        <v>486</v>
+      </c>
+      <c r="O13">
+        <v>9</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+      <c r="Q13">
+        <v>5</v>
+      </c>
+      <c r="R13">
+        <v>181</v>
+      </c>
+      <c r="S13">
+        <v>216</v>
+      </c>
       <c r="V13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="W13" s="3"/>
+      <c r="W13" s="3">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
+      <c r="B14">
+        <v>11374</v>
+      </c>
+      <c r="C14">
+        <v>11289</v>
+      </c>
+      <c r="D14">
+        <v>85</v>
+      </c>
+      <c r="E14">
+        <v>170</v>
+      </c>
+      <c r="F14">
+        <v>11044</v>
+      </c>
+      <c r="G14">
+        <v>539</v>
+      </c>
+      <c r="H14">
+        <v>496</v>
+      </c>
+      <c r="I14">
+        <v>43</v>
+      </c>
+      <c r="J14">
+        <v>2424</v>
+      </c>
+      <c r="K14">
+        <v>356</v>
+      </c>
+      <c r="L14">
+        <v>182</v>
+      </c>
+      <c r="M14">
+        <v>96</v>
+      </c>
+      <c r="N14">
+        <v>1095</v>
+      </c>
+      <c r="O14">
+        <v>5</v>
+      </c>
+      <c r="P14">
+        <v>13</v>
+      </c>
+      <c r="Q14">
+        <v>17</v>
+      </c>
+      <c r="R14">
+        <v>299</v>
+      </c>
+      <c r="S14">
+        <v>151</v>
+      </c>
       <c r="V14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="W14" s="3"/>
+      <c r="W14" s="3">
+        <v>125</v>
+      </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>43</v>
       </c>
+      <c r="B15">
+        <v>7647</v>
+      </c>
+      <c r="C15">
+        <v>7672</v>
+      </c>
+      <c r="D15">
+        <v>73</v>
+      </c>
+      <c r="E15">
+        <v>48</v>
+      </c>
+      <c r="F15">
+        <v>7549</v>
+      </c>
+      <c r="G15">
+        <v>342</v>
+      </c>
+      <c r="H15">
+        <v>247</v>
+      </c>
+      <c r="I15">
+        <v>95</v>
+      </c>
+      <c r="J15">
+        <v>727</v>
+      </c>
+      <c r="K15">
+        <v>223</v>
+      </c>
+      <c r="L15">
+        <v>119</v>
+      </c>
+      <c r="M15">
+        <v>53</v>
+      </c>
+      <c r="N15">
+        <v>696</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>11</v>
+      </c>
+      <c r="Q15">
+        <v>12</v>
+      </c>
+      <c r="R15">
+        <v>264</v>
+      </c>
+      <c r="S15">
+        <v>104</v>
+      </c>
       <c r="V15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="W15" s="3"/>
+      <c r="W15" s="3">
+        <v>47</v>
+      </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>44</v>
       </c>
+      <c r="B16">
+        <v>8439</v>
+      </c>
+      <c r="C16">
+        <v>8489</v>
+      </c>
+      <c r="D16">
+        <v>51</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>8383</v>
+      </c>
+      <c r="G16">
+        <v>123</v>
+      </c>
+      <c r="H16">
+        <v>100</v>
+      </c>
+      <c r="I16">
+        <v>23</v>
+      </c>
+      <c r="J16">
+        <v>324</v>
+      </c>
+      <c r="K16">
+        <v>89</v>
+      </c>
+      <c r="L16">
+        <v>34</v>
+      </c>
+      <c r="M16">
+        <v>23</v>
+      </c>
+      <c r="N16">
+        <v>316</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>7</v>
+      </c>
+      <c r="Q16">
+        <v>2</v>
+      </c>
+      <c r="R16">
+        <v>93</v>
+      </c>
+      <c r="S16">
+        <v>13</v>
+      </c>
       <c r="V16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="W16" s="3"/>
+      <c r="W16" s="3">
+        <v>428</v>
+      </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
+      <c r="B17">
+        <v>16310</v>
+      </c>
+      <c r="C17">
+        <v>16447</v>
+      </c>
+      <c r="D17">
+        <v>171</v>
+      </c>
+      <c r="E17">
+        <v>34</v>
+      </c>
+      <c r="F17">
+        <v>16224</v>
+      </c>
+      <c r="G17">
+        <v>1743</v>
+      </c>
+      <c r="H17">
+        <v>1264</v>
+      </c>
+      <c r="I17">
+        <v>479</v>
+      </c>
+      <c r="J17">
+        <v>2478</v>
+      </c>
+      <c r="K17">
+        <v>696</v>
+      </c>
+      <c r="L17">
+        <v>1047</v>
+      </c>
+      <c r="M17">
+        <v>177</v>
+      </c>
+      <c r="N17">
+        <v>2109</v>
+      </c>
+      <c r="O17">
+        <v>10</v>
+      </c>
+      <c r="P17">
+        <v>26</v>
+      </c>
+      <c r="Q17">
+        <v>20</v>
+      </c>
+      <c r="R17">
+        <v>289</v>
+      </c>
+      <c r="S17">
+        <v>429</v>
+      </c>
       <c r="V17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="W17" s="3"/>
+      <c r="W17" s="3">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>48</v>
       </c>
+      <c r="B18">
+        <v>11890</v>
+      </c>
+      <c r="C18">
+        <v>12014</v>
+      </c>
+      <c r="D18">
+        <v>126</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>11872</v>
+      </c>
+      <c r="G18">
+        <v>382</v>
+      </c>
+      <c r="H18">
+        <v>167</v>
+      </c>
+      <c r="I18">
+        <v>215</v>
+      </c>
+      <c r="J18">
+        <v>512</v>
+      </c>
+      <c r="K18">
+        <v>123</v>
+      </c>
+      <c r="L18">
+        <v>259</v>
+      </c>
+      <c r="M18">
+        <v>23</v>
+      </c>
+      <c r="N18">
+        <v>122</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>2</v>
+      </c>
+      <c r="R18">
+        <v>132</v>
+      </c>
+      <c r="S18">
+        <v>72</v>
+      </c>
       <c r="V18" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="W18" s="3"/>
+      <c r="W18" s="3">
+        <v>43</v>
+      </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>50</v>
       </c>
+      <c r="B19">
+        <v>30308</v>
+      </c>
+      <c r="C19">
+        <v>30399</v>
+      </c>
+      <c r="D19">
+        <v>137</v>
+      </c>
+      <c r="E19">
+        <v>46</v>
+      </c>
+      <c r="F19">
+        <v>29803</v>
+      </c>
+      <c r="G19">
+        <v>2380</v>
+      </c>
+      <c r="H19">
+        <v>1990</v>
+      </c>
+      <c r="I19">
+        <v>390</v>
+      </c>
+      <c r="J19">
+        <v>3325</v>
+      </c>
+      <c r="K19">
+        <v>1203</v>
+      </c>
+      <c r="L19">
+        <v>1176</v>
+      </c>
+      <c r="M19">
+        <v>279</v>
+      </c>
+      <c r="N19">
+        <v>2638</v>
+      </c>
+      <c r="O19">
+        <v>9</v>
+      </c>
+      <c r="P19">
+        <v>42</v>
+      </c>
+      <c r="Q19">
+        <v>40</v>
+      </c>
+      <c r="R19">
+        <v>294</v>
+      </c>
+      <c r="S19">
+        <v>444</v>
+      </c>
       <c r="V19" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="W19" s="3"/>
+      <c r="W19" s="3">
+        <v>362</v>
+      </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>47</v>
       </c>
+      <c r="B20">
+        <v>5153</v>
+      </c>
+      <c r="C20">
+        <v>5169</v>
+      </c>
+      <c r="D20">
+        <v>17</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>4841</v>
+      </c>
+      <c r="G20">
+        <v>44</v>
+      </c>
+      <c r="H20">
+        <v>33</v>
+      </c>
+      <c r="I20">
+        <v>11</v>
+      </c>
+      <c r="J20">
+        <v>130</v>
+      </c>
+      <c r="K20">
+        <v>39</v>
+      </c>
+      <c r="L20">
+        <v>5</v>
+      </c>
+      <c r="M20">
+        <v>13</v>
+      </c>
+      <c r="N20">
+        <v>7845</v>
+      </c>
+      <c r="O20">
+        <v>2301</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>2</v>
+      </c>
+      <c r="R20">
+        <v>50</v>
+      </c>
+      <c r="S20">
+        <v>6</v>
+      </c>
       <c r="V20" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="W20" s="3"/>
+      <c r="W20" s="3">
+        <v>1963</v>
+      </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>53</v>
       </c>
+      <c r="B21">
+        <v>26852</v>
+      </c>
+      <c r="C21">
+        <v>26936</v>
+      </c>
+      <c r="D21">
+        <v>84</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>26350</v>
+      </c>
+      <c r="G21">
+        <v>2325</v>
+      </c>
+      <c r="H21">
+        <v>1859</v>
+      </c>
+      <c r="I21">
+        <v>466</v>
+      </c>
+      <c r="J21">
+        <v>2975</v>
+      </c>
+      <c r="K21">
+        <v>1483</v>
+      </c>
+      <c r="L21">
+        <v>842</v>
+      </c>
+      <c r="M21">
+        <v>338</v>
+      </c>
+      <c r="N21">
+        <v>3997</v>
+      </c>
+      <c r="O21">
+        <v>10</v>
+      </c>
+      <c r="P21">
+        <v>45</v>
+      </c>
+      <c r="Q21">
+        <v>38</v>
+      </c>
+      <c r="R21">
+        <v>263</v>
+      </c>
+      <c r="S21">
+        <v>463</v>
+      </c>
       <c r="V21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="W21" s="3"/>
+      <c r="W21" s="3">
+        <v>58</v>
+      </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>49</v>
       </c>
+      <c r="B22">
+        <v>14127</v>
+      </c>
+      <c r="C22">
+        <v>14137</v>
+      </c>
+      <c r="D22">
+        <v>19</v>
+      </c>
+      <c r="E22">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>13622</v>
+      </c>
+      <c r="G22">
+        <v>136</v>
+      </c>
+      <c r="H22">
+        <v>127</v>
+      </c>
+      <c r="I22">
+        <v>9</v>
+      </c>
+      <c r="J22">
+        <v>277</v>
+      </c>
+      <c r="K22">
+        <v>102</v>
+      </c>
+      <c r="L22">
+        <v>34</v>
+      </c>
+      <c r="M22">
+        <v>28</v>
+      </c>
+      <c r="N22">
+        <v>1202</v>
+      </c>
+      <c r="O22">
+        <v>8</v>
+      </c>
+      <c r="P22">
+        <v>2</v>
+      </c>
+      <c r="Q22">
+        <v>10</v>
+      </c>
+      <c r="R22">
+        <v>84</v>
+      </c>
+      <c r="S22">
+        <v>17</v>
+      </c>
       <c r="V22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="W22" s="3"/>
+      <c r="W22" s="3">
+        <v>529</v>
+      </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>56</v>
       </c>
+      <c r="B23">
+        <v>22669</v>
+      </c>
+      <c r="C23">
+        <v>22808</v>
+      </c>
+      <c r="D23">
+        <v>184</v>
+      </c>
+      <c r="E23">
+        <v>45</v>
+      </c>
+      <c r="F23">
+        <v>22335</v>
+      </c>
+      <c r="G23">
+        <v>1256</v>
+      </c>
+      <c r="H23">
+        <v>1008</v>
+      </c>
+      <c r="I23">
+        <v>248</v>
+      </c>
+      <c r="J23">
+        <v>2697</v>
+      </c>
+      <c r="K23">
+        <v>708</v>
+      </c>
+      <c r="L23">
+        <v>547</v>
+      </c>
+      <c r="M23">
+        <v>205</v>
+      </c>
+      <c r="N23">
+        <v>3102</v>
+      </c>
+      <c r="O23">
+        <v>14</v>
+      </c>
+      <c r="P23">
+        <v>39</v>
+      </c>
+      <c r="Q23">
+        <v>54</v>
+      </c>
+      <c r="R23">
+        <v>270</v>
+      </c>
+      <c r="S23">
+        <v>324</v>
+      </c>
       <c r="V23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="W23" s="3"/>
+      <c r="W23" s="3">
+        <v>114</v>
+      </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>52</v>
       </c>
+      <c r="B24">
+        <v>91679</v>
+      </c>
+      <c r="C24">
+        <v>90354</v>
+      </c>
+      <c r="D24">
+        <v>496</v>
+      </c>
+      <c r="E24">
+        <v>1821</v>
+      </c>
+      <c r="F24">
+        <v>83249</v>
+      </c>
+      <c r="G24">
+        <v>9252</v>
+      </c>
+      <c r="H24">
+        <v>7436</v>
+      </c>
+      <c r="I24">
+        <v>1816</v>
+      </c>
+      <c r="J24">
+        <v>13576</v>
+      </c>
+      <c r="K24">
+        <v>4764</v>
+      </c>
+      <c r="L24">
+        <v>4476</v>
+      </c>
+      <c r="M24">
+        <v>888</v>
+      </c>
+      <c r="N24">
+        <v>15084</v>
+      </c>
+      <c r="O24">
+        <v>93</v>
+      </c>
+      <c r="P24">
+        <v>142</v>
+      </c>
+      <c r="Q24">
+        <v>307</v>
+      </c>
+      <c r="R24">
+        <v>1102</v>
+      </c>
+      <c r="S24">
+        <v>1007</v>
+      </c>
       <c r="V24" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="W24" s="3"/>
+      <c r="W24" s="3">
+        <v>259</v>
+      </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
+      <c r="B25">
+        <v>13276</v>
+      </c>
+      <c r="C25">
+        <v>12960</v>
+      </c>
+      <c r="D25">
+        <v>113</v>
+      </c>
+      <c r="E25">
+        <v>430</v>
+      </c>
+      <c r="F25">
+        <v>12810</v>
+      </c>
+      <c r="G25">
+        <v>555</v>
+      </c>
+      <c r="H25">
+        <v>462</v>
+      </c>
+      <c r="I25">
+        <v>93</v>
+      </c>
+      <c r="J25">
+        <v>937</v>
+      </c>
+      <c r="K25">
+        <v>288</v>
+      </c>
+      <c r="L25">
+        <v>267</v>
+      </c>
+      <c r="M25">
+        <v>66</v>
+      </c>
+      <c r="N25">
+        <v>622</v>
+      </c>
+      <c r="O25">
+        <v>2</v>
+      </c>
+      <c r="P25">
+        <v>14</v>
+      </c>
+      <c r="Q25">
+        <v>20</v>
+      </c>
+      <c r="R25">
+        <v>191</v>
+      </c>
+      <c r="S25">
+        <v>82</v>
+      </c>
       <c r="V25" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="W25" s="3"/>
+      <c r="W25" s="3">
+        <v>26</v>
+      </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>55</v>
       </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>488</v>
+      </c>
+      <c r="O26">
+        <v>9</v>
+      </c>
+      <c r="P26">
+        <v>2</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
       <c r="V26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="W26" s="3"/>
+      <c r="W26" s="3">
+        <v>111</v>
+      </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>57</v>
       </c>
+      <c r="B27">
+        <v>14587</v>
+      </c>
+      <c r="C27">
+        <v>14544</v>
+      </c>
+      <c r="D27">
+        <v>67</v>
+      </c>
+      <c r="E27">
+        <v>110</v>
+      </c>
+      <c r="F27">
+        <v>14290</v>
+      </c>
+      <c r="G27">
+        <v>680</v>
+      </c>
+      <c r="H27">
+        <v>531</v>
+      </c>
+      <c r="I27">
+        <v>149</v>
+      </c>
+      <c r="J27">
+        <v>1115</v>
+      </c>
+      <c r="K27">
+        <v>464</v>
+      </c>
+      <c r="L27">
+        <v>216</v>
+      </c>
+      <c r="M27">
+        <v>90</v>
+      </c>
+      <c r="N27">
+        <v>962</v>
+      </c>
+      <c r="O27">
+        <v>6</v>
+      </c>
+      <c r="P27">
+        <v>9</v>
+      </c>
+      <c r="Q27">
+        <v>12</v>
+      </c>
+      <c r="R27">
+        <v>133</v>
+      </c>
+      <c r="S27">
+        <v>153</v>
+      </c>
       <c r="V27" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="W27" s="3"/>
+      <c r="W27" s="3">
+        <v>208</v>
+      </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>59</v>
       </c>
+      <c r="B28">
+        <v>3801</v>
+      </c>
+      <c r="C28">
+        <v>3815</v>
+      </c>
+      <c r="D28">
+        <v>15</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>3803</v>
+      </c>
+      <c r="G28">
+        <v>314</v>
+      </c>
+      <c r="H28">
+        <v>230</v>
+      </c>
+      <c r="I28">
+        <v>84</v>
+      </c>
+      <c r="J28">
+        <v>427</v>
+      </c>
+      <c r="K28">
+        <v>116</v>
+      </c>
+      <c r="L28">
+        <v>198</v>
+      </c>
+      <c r="M28">
+        <v>40</v>
+      </c>
+      <c r="N28">
+        <v>539</v>
+      </c>
+      <c r="O28">
+        <v>4</v>
+      </c>
+      <c r="P28">
+        <v>5</v>
+      </c>
+      <c r="Q28">
+        <v>5</v>
+      </c>
+      <c r="R28">
+        <v>49</v>
+      </c>
+      <c r="S28">
+        <v>66</v>
+      </c>
       <c r="V28" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="W28" s="3"/>
+      <c r="W28" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>60</v>
       </c>
+      <c r="B29">
+        <v>16211</v>
+      </c>
+      <c r="C29">
+        <v>16267</v>
+      </c>
+      <c r="D29">
+        <v>127</v>
+      </c>
+      <c r="E29">
+        <v>71</v>
+      </c>
+      <c r="F29">
+        <v>16127</v>
+      </c>
+      <c r="G29">
+        <v>1810</v>
+      </c>
+      <c r="H29">
+        <v>1440</v>
+      </c>
+      <c r="I29">
+        <v>370</v>
+      </c>
+      <c r="J29">
+        <v>2634</v>
+      </c>
+      <c r="K29">
+        <v>829</v>
+      </c>
+      <c r="L29">
+        <v>981</v>
+      </c>
+      <c r="M29">
+        <v>184</v>
+      </c>
+      <c r="N29">
+        <v>1765</v>
+      </c>
+      <c r="O29">
+        <v>7</v>
+      </c>
+      <c r="P29">
+        <v>39</v>
+      </c>
+      <c r="Q29">
+        <v>4</v>
+      </c>
+      <c r="R29">
+        <v>353</v>
+      </c>
+      <c r="S29">
+        <v>365</v>
+      </c>
       <c r="V29" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="W29" s="3"/>
+      <c r="W29" s="3">
+        <v>39</v>
+      </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>62</v>
       </c>
+      <c r="B30">
+        <v>692</v>
+      </c>
+      <c r="C30">
+        <v>738</v>
+      </c>
+      <c r="D30">
+        <v>77</v>
+      </c>
+      <c r="E30">
+        <v>31</v>
+      </c>
+      <c r="F30">
+        <v>662</v>
+      </c>
+      <c r="G30">
+        <v>100</v>
+      </c>
+      <c r="H30">
+        <v>75</v>
+      </c>
+      <c r="I30">
+        <v>25</v>
+      </c>
+      <c r="J30">
+        <v>255</v>
+      </c>
+      <c r="K30">
+        <v>79</v>
+      </c>
+      <c r="L30">
+        <v>21</v>
+      </c>
+      <c r="M30">
+        <v>14</v>
+      </c>
+      <c r="N30">
+        <v>328</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>14</v>
+      </c>
+      <c r="R30">
+        <v>45</v>
+      </c>
+      <c r="S30">
+        <v>34</v>
+      </c>
       <c r="V30" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="W30" s="3"/>
+      <c r="W30" s="3">
+        <v>166</v>
+      </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>63</v>
       </c>
+      <c r="B31">
+        <v>18719</v>
+      </c>
+      <c r="C31">
+        <v>18823</v>
+      </c>
+      <c r="D31">
+        <v>124</v>
+      </c>
+      <c r="E31">
+        <v>20</v>
+      </c>
+      <c r="F31">
+        <v>18223</v>
+      </c>
+      <c r="G31">
+        <v>256</v>
+      </c>
+      <c r="H31">
+        <v>198</v>
+      </c>
+      <c r="I31">
+        <v>58</v>
+      </c>
+      <c r="J31">
+        <v>662</v>
+      </c>
+      <c r="K31">
+        <v>90</v>
+      </c>
+      <c r="L31">
+        <v>166</v>
+      </c>
+      <c r="M31">
+        <v>38</v>
+      </c>
+      <c r="N31">
+        <v>511</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>4</v>
+      </c>
+      <c r="Q31">
+        <v>5</v>
+      </c>
+      <c r="R31">
+        <v>237</v>
+      </c>
+      <c r="S31">
+        <v>25</v>
+      </c>
       <c r="V31" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="W31" s="3"/>
+      <c r="W31" s="3">
+        <v>143</v>
+      </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>66</v>
       </c>
+      <c r="B32">
+        <v>23442</v>
+      </c>
+      <c r="C32">
+        <v>23521</v>
+      </c>
+      <c r="D32">
+        <v>120</v>
+      </c>
+      <c r="E32">
+        <v>41</v>
+      </c>
+      <c r="F32">
+        <v>23380</v>
+      </c>
+      <c r="G32">
+        <v>1857</v>
+      </c>
+      <c r="H32">
+        <v>1670</v>
+      </c>
+      <c r="I32">
+        <v>187</v>
+      </c>
+      <c r="J32">
+        <v>3074</v>
+      </c>
+      <c r="K32">
+        <v>1301</v>
+      </c>
+      <c r="L32">
+        <v>556</v>
+      </c>
+      <c r="M32">
+        <v>272</v>
+      </c>
+      <c r="N32">
+        <v>2294</v>
+      </c>
+      <c r="O32">
+        <v>11</v>
+      </c>
+      <c r="P32">
+        <v>48</v>
+      </c>
+      <c r="Q32">
+        <v>40</v>
+      </c>
+      <c r="R32">
+        <v>401</v>
+      </c>
+      <c r="S32">
+        <v>381</v>
+      </c>
       <c r="V32" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="W32" s="3"/>
+      <c r="W32" s="3">
+        <v>129</v>
+      </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>65</v>
       </c>
+      <c r="B33">
+        <v>17509</v>
+      </c>
+      <c r="C33">
+        <v>17528</v>
+      </c>
+      <c r="D33">
+        <v>105</v>
+      </c>
+      <c r="E33">
+        <v>86</v>
+      </c>
+      <c r="F33">
+        <v>17374</v>
+      </c>
+      <c r="G33">
+        <v>1390</v>
+      </c>
+      <c r="H33">
+        <v>1036</v>
+      </c>
+      <c r="I33">
+        <v>354</v>
+      </c>
+      <c r="J33">
+        <v>2401</v>
+      </c>
+      <c r="K33">
+        <v>694</v>
+      </c>
+      <c r="L33">
+        <v>696</v>
+      </c>
+      <c r="M33">
+        <v>262</v>
+      </c>
+      <c r="N33">
+        <v>2732</v>
+      </c>
+      <c r="O33">
+        <v>15</v>
+      </c>
+      <c r="P33">
+        <v>32</v>
+      </c>
+      <c r="Q33">
+        <v>21</v>
+      </c>
+      <c r="R33">
+        <v>292</v>
+      </c>
+      <c r="S33">
+        <v>367</v>
+      </c>
       <c r="V33" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="W33" s="3"/>
+      <c r="W33" s="3">
+        <v>607</v>
+      </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>67</v>
       </c>
+      <c r="B34">
+        <v>10571</v>
+      </c>
+      <c r="C34">
+        <v>10598</v>
+      </c>
+      <c r="D34">
+        <v>45</v>
+      </c>
+      <c r="E34">
+        <v>18</v>
+      </c>
+      <c r="F34">
+        <v>10398</v>
+      </c>
+      <c r="G34">
+        <v>675</v>
+      </c>
+      <c r="H34">
+        <v>532</v>
+      </c>
+      <c r="I34">
+        <v>143</v>
+      </c>
+      <c r="J34">
+        <v>1242</v>
+      </c>
+      <c r="K34">
+        <v>530</v>
+      </c>
+      <c r="L34">
+        <v>145</v>
+      </c>
+      <c r="M34">
+        <v>130</v>
+      </c>
+      <c r="N34">
+        <v>1231</v>
+      </c>
+      <c r="O34">
+        <v>5</v>
+      </c>
+      <c r="P34">
+        <v>16</v>
+      </c>
+      <c r="Q34">
+        <v>11</v>
+      </c>
+      <c r="R34">
+        <v>128</v>
+      </c>
+      <c r="S34">
+        <v>175</v>
+      </c>
       <c r="V34" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="W34" s="3"/>
+      <c r="W34" s="3">
+        <v>115</v>
+      </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>70</v>
       </c>
+      <c r="B35">
+        <v>68610</v>
+      </c>
+      <c r="C35">
+        <v>69094</v>
+      </c>
+      <c r="D35">
+        <v>656</v>
+      </c>
+      <c r="E35">
+        <v>172</v>
+      </c>
+      <c r="F35">
+        <v>66767</v>
+      </c>
+      <c r="G35">
+        <v>5691</v>
+      </c>
+      <c r="H35">
+        <v>4774</v>
+      </c>
+      <c r="I35">
+        <v>917</v>
+      </c>
+      <c r="J35">
+        <v>7301</v>
+      </c>
+      <c r="K35">
+        <v>2754</v>
+      </c>
+      <c r="L35">
+        <v>2937</v>
+      </c>
+      <c r="M35">
+        <v>647</v>
+      </c>
+      <c r="N35">
+        <v>12052</v>
+      </c>
+      <c r="O35">
+        <v>48</v>
+      </c>
+      <c r="P35">
+        <v>120</v>
+      </c>
+      <c r="Q35">
+        <v>123</v>
+      </c>
+      <c r="R35">
+        <v>658</v>
+      </c>
+      <c r="S35">
+        <v>776</v>
+      </c>
       <c r="V35" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="W35" s="3"/>
+      <c r="W35" s="3">
+        <v>245</v>
+      </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>69</v>
       </c>
+      <c r="B36">
+        <v>21544</v>
+      </c>
+      <c r="C36">
+        <v>21643</v>
+      </c>
+      <c r="D36">
+        <v>103</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36">
+        <v>21321</v>
+      </c>
+      <c r="G36">
+        <v>1088</v>
+      </c>
+      <c r="H36">
+        <v>959</v>
+      </c>
+      <c r="I36">
+        <v>129</v>
+      </c>
+      <c r="J36">
+        <v>2268</v>
+      </c>
+      <c r="K36">
+        <v>661</v>
+      </c>
+      <c r="L36">
+        <v>427</v>
+      </c>
+      <c r="M36">
+        <v>144</v>
+      </c>
+      <c r="N36">
+        <v>1191</v>
+      </c>
+      <c r="O36">
+        <v>7</v>
+      </c>
+      <c r="P36">
+        <v>15</v>
+      </c>
+      <c r="Q36">
+        <v>22</v>
+      </c>
+      <c r="R36">
+        <v>383</v>
+      </c>
+      <c r="S36">
+        <v>186</v>
+      </c>
       <c r="V36" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="W36" s="3"/>
+      <c r="W36" s="3">
+        <v>17</v>
+      </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>71</v>
       </c>
+      <c r="B37">
+        <v>31554</v>
+      </c>
+      <c r="C37">
+        <v>31554</v>
+      </c>
+      <c r="D37">
+        <v>174</v>
+      </c>
+      <c r="E37">
+        <v>174</v>
+      </c>
+      <c r="F37">
+        <v>30405</v>
+      </c>
+      <c r="G37">
+        <v>2015</v>
+      </c>
+      <c r="H37">
+        <v>1572</v>
+      </c>
+      <c r="I37">
+        <v>443</v>
+      </c>
+      <c r="J37">
+        <v>2854</v>
+      </c>
+      <c r="K37">
+        <v>1167</v>
+      </c>
+      <c r="L37">
+        <v>847</v>
+      </c>
+      <c r="M37">
+        <v>373</v>
+      </c>
+      <c r="N37">
+        <v>5293</v>
+      </c>
+      <c r="O37">
+        <v>20</v>
+      </c>
+      <c r="P37">
+        <v>52</v>
+      </c>
+      <c r="Q37">
+        <v>99</v>
+      </c>
+      <c r="R37">
+        <v>263</v>
+      </c>
+      <c r="S37">
+        <v>341</v>
+      </c>
       <c r="V37" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="W37" s="3"/>
+      <c r="W37" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>74</v>
       </c>
+      <c r="B38">
+        <v>10385</v>
+      </c>
+      <c r="C38">
+        <v>10498</v>
+      </c>
+      <c r="D38">
+        <v>121</v>
+      </c>
+      <c r="E38">
+        <v>8</v>
+      </c>
+      <c r="F38">
+        <v>10480</v>
+      </c>
+      <c r="G38">
+        <v>112</v>
+      </c>
+      <c r="H38">
+        <v>104</v>
+      </c>
+      <c r="I38">
+        <v>8</v>
+      </c>
+      <c r="J38">
+        <v>302</v>
+      </c>
+      <c r="K38">
+        <v>67</v>
+      </c>
+      <c r="L38">
+        <v>45</v>
+      </c>
+      <c r="M38">
+        <v>18</v>
+      </c>
+      <c r="N38">
+        <v>181</v>
+      </c>
+      <c r="O38">
+        <v>2</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>10</v>
+      </c>
+      <c r="R38">
+        <v>105</v>
+      </c>
+      <c r="S38">
+        <v>23</v>
+      </c>
       <c r="V38" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="W38" s="3"/>
+      <c r="W38" s="3">
+        <v>117</v>
+      </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>72</v>
       </c>
+      <c r="B39">
+        <v>7526</v>
+      </c>
+      <c r="C39">
+        <v>7384</v>
+      </c>
+      <c r="D39">
+        <v>82</v>
+      </c>
+      <c r="E39">
+        <v>224</v>
+      </c>
+      <c r="F39">
+        <v>7232</v>
+      </c>
+      <c r="G39">
+        <v>145</v>
+      </c>
+      <c r="H39">
+        <v>135</v>
+      </c>
+      <c r="I39">
+        <v>10</v>
+      </c>
+      <c r="J39">
+        <v>261</v>
+      </c>
+      <c r="K39">
+        <v>52</v>
+      </c>
+      <c r="L39">
+        <v>93</v>
+      </c>
+      <c r="M39">
+        <v>27</v>
+      </c>
+      <c r="N39">
+        <v>371</v>
+      </c>
+      <c r="O39">
+        <v>2</v>
+      </c>
+      <c r="P39">
+        <v>3</v>
+      </c>
+      <c r="Q39">
+        <v>12</v>
+      </c>
+      <c r="R39">
+        <v>18</v>
+      </c>
+      <c r="S39">
+        <v>61</v>
+      </c>
       <c r="V39" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="W39" s="3"/>
+      <c r="W39" s="3">
+        <v>285</v>
+      </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>77</v>
       </c>
+      <c r="B40">
+        <v>11716</v>
+      </c>
+      <c r="C40">
+        <v>11742</v>
+      </c>
+      <c r="D40">
+        <v>29</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>10311</v>
+      </c>
+      <c r="G40">
+        <v>289</v>
+      </c>
+      <c r="H40">
+        <v>267</v>
+      </c>
+      <c r="I40">
+        <v>22</v>
+      </c>
+      <c r="J40">
+        <v>458</v>
+      </c>
+      <c r="K40">
+        <v>14</v>
+      </c>
+      <c r="L40">
+        <v>275</v>
+      </c>
+      <c r="M40">
+        <v>88</v>
+      </c>
+      <c r="N40">
+        <v>211</v>
+      </c>
+      <c r="O40">
+        <v>2</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>47</v>
+      </c>
+      <c r="S40">
+        <v>42</v>
+      </c>
       <c r="V40" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="W40" s="3"/>
+      <c r="W40" s="3">
+        <v>65</v>
+      </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>79</v>
       </c>
+      <c r="B41">
+        <v>18838</v>
+      </c>
+      <c r="C41">
+        <v>17377</v>
+      </c>
+      <c r="D41">
+        <v>17</v>
+      </c>
+      <c r="E41">
+        <v>1478</v>
+      </c>
+      <c r="F41">
+        <v>13899</v>
+      </c>
+      <c r="G41">
+        <v>2010</v>
+      </c>
+      <c r="H41">
+        <v>1672</v>
+      </c>
+      <c r="I41">
+        <v>338</v>
+      </c>
+      <c r="J41">
+        <v>1983</v>
+      </c>
+      <c r="K41">
+        <v>11</v>
+      </c>
+      <c r="L41">
+        <v>1998</v>
+      </c>
+      <c r="M41">
+        <v>356</v>
+      </c>
+      <c r="N41">
+        <v>523</v>
+      </c>
+      <c r="O41">
+        <v>4</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>98</v>
+      </c>
+      <c r="S41">
+        <v>56</v>
+      </c>
       <c r="V41" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="W41" s="3"/>
+      <c r="W41" s="3">
+        <v>528</v>
+      </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>81</v>
       </c>
+      <c r="B42">
+        <v>3817</v>
+      </c>
+      <c r="C42">
+        <v>3817</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>3564</v>
+      </c>
+      <c r="G42">
+        <v>89</v>
+      </c>
+      <c r="H42">
+        <v>71</v>
+      </c>
+      <c r="I42">
+        <v>18</v>
+      </c>
+      <c r="J42">
+        <v>138</v>
+      </c>
+      <c r="K42">
+        <v>59</v>
+      </c>
+      <c r="L42">
+        <v>30</v>
+      </c>
+      <c r="M42">
+        <v>71</v>
+      </c>
+      <c r="N42">
+        <v>285</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>29</v>
+      </c>
+      <c r="S42">
+        <v>46</v>
+      </c>
       <c r="V42" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="W42" s="3"/>
+      <c r="W42" s="3">
+        <v>76</v>
+      </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>83</v>
       </c>
+      <c r="B43">
+        <v>4933</v>
+      </c>
+      <c r="C43">
+        <v>4923</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>10</v>
+      </c>
+      <c r="F43">
+        <v>4298</v>
+      </c>
+      <c r="G43">
+        <v>104</v>
+      </c>
+      <c r="H43">
+        <v>88</v>
+      </c>
+      <c r="I43">
+        <v>16</v>
+      </c>
+      <c r="J43">
+        <v>151</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
+      </c>
+      <c r="L43">
+        <v>102</v>
+      </c>
+      <c r="M43">
+        <v>59</v>
+      </c>
+      <c r="N43">
+        <v>194</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>15</v>
+      </c>
+      <c r="S43">
+        <v>7</v>
+      </c>
       <c r="V43" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="W43" s="3"/>
+      <c r="W43" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>85</v>
       </c>
+      <c r="B44">
+        <v>13490</v>
+      </c>
+      <c r="C44">
+        <v>13487</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>6</v>
+      </c>
+      <c r="F44">
+        <v>9573</v>
+      </c>
+      <c r="G44">
+        <v>435</v>
+      </c>
+      <c r="H44">
+        <v>297</v>
+      </c>
+      <c r="I44">
+        <v>138</v>
+      </c>
+      <c r="J44">
+        <v>431</v>
+      </c>
+      <c r="K44">
+        <v>117</v>
+      </c>
+      <c r="L44">
+        <v>318</v>
+      </c>
+      <c r="M44">
+        <v>93</v>
+      </c>
+      <c r="N44">
+        <v>180</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>60</v>
+      </c>
+      <c r="S44">
+        <v>4</v>
+      </c>
       <c r="V44" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="W44" s="3"/>
+      <c r="W44" s="3">
+        <v>17</v>
+      </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>87</v>
       </c>
+      <c r="B45">
+        <v>7980</v>
+      </c>
+      <c r="C45">
+        <v>7981</v>
+      </c>
+      <c r="D45">
+        <v>18</v>
+      </c>
+      <c r="E45">
+        <v>17</v>
+      </c>
+      <c r="F45">
+        <v>7947</v>
+      </c>
+      <c r="G45">
+        <v>364</v>
+      </c>
+      <c r="H45">
+        <v>323</v>
+      </c>
+      <c r="I45">
+        <v>41</v>
+      </c>
+      <c r="J45">
+        <v>606</v>
+      </c>
+      <c r="K45">
+        <v>257</v>
+      </c>
+      <c r="L45">
+        <v>107</v>
+      </c>
+      <c r="M45">
+        <v>40</v>
+      </c>
+      <c r="N45">
+        <v>214</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
+      </c>
+      <c r="R45">
+        <v>101</v>
+      </c>
+      <c r="S45">
+        <v>58</v>
+      </c>
       <c r="V45" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="W45" s="3"/>
+      <c r="W45" s="3">
+        <v>53</v>
+      </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>75</v>
       </c>
+      <c r="B46">
+        <v>15570</v>
+      </c>
+      <c r="C46">
+        <v>15615</v>
+      </c>
+      <c r="D46">
+        <v>83</v>
+      </c>
+      <c r="E46">
+        <v>38</v>
+      </c>
+      <c r="F46">
+        <v>15534</v>
+      </c>
+      <c r="G46">
+        <v>1496</v>
+      </c>
+      <c r="H46">
+        <v>1170</v>
+      </c>
+      <c r="I46">
+        <v>326</v>
+      </c>
+      <c r="J46">
+        <v>2455</v>
+      </c>
+      <c r="K46">
+        <v>766</v>
+      </c>
+      <c r="L46">
+        <v>730</v>
+      </c>
+      <c r="M46">
+        <v>187</v>
+      </c>
+      <c r="N46">
+        <v>1308</v>
+      </c>
+      <c r="O46">
+        <v>7</v>
+      </c>
+      <c r="P46">
+        <v>28</v>
+      </c>
+      <c r="Q46">
+        <v>16</v>
+      </c>
+      <c r="R46">
+        <v>399</v>
+      </c>
+      <c r="S46">
+        <v>315</v>
+      </c>
       <c r="V46" s="3" t="s">
         <v>89</v>
       </c>
@@ -1347,45 +3870,531 @@
       <c r="A47" t="s">
         <v>90</v>
       </c>
+      <c r="B47">
+        <v>30729</v>
+      </c>
+      <c r="C47">
+        <v>30508</v>
+      </c>
+      <c r="D47">
+        <v>110</v>
+      </c>
+      <c r="E47">
+        <v>331</v>
+      </c>
+      <c r="F47">
+        <v>29832</v>
+      </c>
+      <c r="G47">
+        <v>3747</v>
+      </c>
+      <c r="H47">
+        <v>2948</v>
+      </c>
+      <c r="I47">
+        <v>799</v>
+      </c>
+      <c r="J47">
+        <v>5043</v>
+      </c>
+      <c r="K47">
+        <v>1061</v>
+      </c>
+      <c r="L47">
+        <v>2685</v>
+      </c>
+      <c r="M47">
+        <v>279</v>
+      </c>
+      <c r="N47">
+        <v>1853</v>
+      </c>
+      <c r="O47">
+        <v>6</v>
+      </c>
+      <c r="P47">
+        <v>31</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>442</v>
+      </c>
+      <c r="S47">
+        <v>791</v>
+      </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>22755</v>
+      </c>
+      <c r="C48">
+        <v>22778</v>
+      </c>
+      <c r="D48">
+        <v>50</v>
+      </c>
+      <c r="E48">
+        <v>27</v>
+      </c>
+      <c r="F48">
+        <v>22690</v>
+      </c>
+      <c r="G48">
+        <v>1503</v>
+      </c>
+      <c r="H48">
+        <v>1247</v>
+      </c>
+      <c r="I48">
+        <v>256</v>
+      </c>
+      <c r="J48">
+        <v>2288</v>
+      </c>
+      <c r="K48">
+        <v>762</v>
+      </c>
+      <c r="L48">
+        <v>741</v>
+      </c>
+      <c r="M48">
+        <v>250</v>
+      </c>
+      <c r="N48">
+        <v>1673</v>
+      </c>
+      <c r="O48">
+        <v>4</v>
+      </c>
+      <c r="P48">
+        <v>34</v>
+      </c>
+      <c r="Q48">
+        <v>23</v>
+      </c>
+      <c r="R48">
+        <v>512</v>
+      </c>
+      <c r="S48">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>11118</v>
+      </c>
+      <c r="C49">
+        <v>11175</v>
+      </c>
+      <c r="D49">
+        <v>71</v>
+      </c>
+      <c r="E49">
+        <v>14</v>
+      </c>
+      <c r="F49">
+        <v>10543</v>
+      </c>
+      <c r="G49">
+        <v>1186</v>
+      </c>
+      <c r="H49">
+        <v>928</v>
+      </c>
+      <c r="I49">
+        <v>258</v>
+      </c>
+      <c r="J49">
+        <v>2328</v>
+      </c>
+      <c r="K49">
+        <v>443</v>
+      </c>
+      <c r="L49">
+        <v>742</v>
+      </c>
+      <c r="M49">
+        <v>167</v>
+      </c>
+      <c r="N49">
+        <v>1046</v>
+      </c>
+      <c r="O49">
+        <v>3</v>
+      </c>
+      <c r="P49">
+        <v>23</v>
+      </c>
+      <c r="Q49">
+        <v>13</v>
+      </c>
+      <c r="R49">
+        <v>145</v>
+      </c>
+      <c r="S49">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>26727</v>
+      </c>
+      <c r="C50">
+        <v>26946</v>
+      </c>
+      <c r="D50">
+        <v>275</v>
+      </c>
+      <c r="E50">
+        <v>56</v>
+      </c>
+      <c r="F50">
+        <v>26659</v>
+      </c>
+      <c r="G50">
+        <v>2820</v>
+      </c>
+      <c r="H50">
+        <v>2385</v>
+      </c>
+      <c r="I50">
+        <v>435</v>
+      </c>
+      <c r="J50">
+        <v>3760</v>
+      </c>
+      <c r="K50">
+        <v>1449</v>
+      </c>
+      <c r="L50">
+        <v>1371</v>
+      </c>
+      <c r="M50">
+        <v>406</v>
+      </c>
+      <c r="N50">
+        <v>4698</v>
+      </c>
+      <c r="O50">
+        <v>40</v>
+      </c>
+      <c r="P50">
+        <v>54</v>
+      </c>
+      <c r="Q50">
+        <v>73</v>
+      </c>
+      <c r="R50">
+        <v>374</v>
+      </c>
+      <c r="S50">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>10594</v>
+      </c>
+      <c r="C51">
+        <v>10604</v>
+      </c>
+      <c r="D51">
+        <v>11</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>10534</v>
+      </c>
+      <c r="G51">
+        <v>453</v>
+      </c>
+      <c r="H51">
+        <v>364</v>
+      </c>
+      <c r="I51">
+        <v>89</v>
+      </c>
+      <c r="J51">
+        <v>712</v>
+      </c>
+      <c r="K51">
+        <v>255</v>
+      </c>
+      <c r="L51">
+        <v>198</v>
+      </c>
+      <c r="M51">
+        <v>56</v>
+      </c>
+      <c r="N51">
+        <v>561</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="P51">
+        <v>6</v>
+      </c>
+      <c r="Q51">
+        <v>6</v>
+      </c>
+      <c r="R51">
+        <v>66</v>
+      </c>
+      <c r="S51">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>22817</v>
+      </c>
+      <c r="C52">
+        <v>22989</v>
+      </c>
+      <c r="D52">
+        <v>188</v>
+      </c>
+      <c r="E52">
+        <v>16</v>
+      </c>
+      <c r="F52">
+        <v>22323</v>
+      </c>
+      <c r="G52">
+        <v>1646</v>
+      </c>
+      <c r="H52">
+        <v>1235</v>
+      </c>
+      <c r="I52">
+        <v>411</v>
+      </c>
+      <c r="J52">
+        <v>2652</v>
+      </c>
+      <c r="K52">
+        <v>760</v>
+      </c>
+      <c r="L52">
+        <v>886</v>
+      </c>
+      <c r="M52">
+        <v>150</v>
+      </c>
+      <c r="N52">
+        <v>1091</v>
+      </c>
+      <c r="O52">
+        <v>8</v>
+      </c>
+      <c r="P52">
+        <v>19</v>
+      </c>
+      <c r="Q52">
+        <v>21</v>
+      </c>
+      <c r="R52">
+        <v>383</v>
+      </c>
+      <c r="S52">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>10768</v>
+      </c>
+      <c r="C53">
+        <v>10792</v>
+      </c>
+      <c r="D53">
+        <v>27</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53">
+        <v>10694</v>
+      </c>
+      <c r="G53">
+        <v>244</v>
+      </c>
+      <c r="H53">
+        <v>224</v>
+      </c>
+      <c r="I53">
+        <v>20</v>
+      </c>
+      <c r="J53">
+        <v>611</v>
+      </c>
+      <c r="K53">
+        <v>196</v>
+      </c>
+      <c r="L53">
+        <v>48</v>
+      </c>
+      <c r="M53">
+        <v>23</v>
+      </c>
+      <c r="N53">
+        <v>288</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>2</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+      <c r="R53">
+        <v>89</v>
+      </c>
+      <c r="S53">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>13962</v>
+      </c>
+      <c r="C54">
+        <v>14023</v>
+      </c>
+      <c r="D54">
+        <v>97</v>
+      </c>
+      <c r="E54">
+        <v>36</v>
+      </c>
+      <c r="F54">
+        <v>13914</v>
+      </c>
+      <c r="G54">
+        <v>200</v>
+      </c>
+      <c r="H54">
+        <v>179</v>
+      </c>
+      <c r="I54">
+        <v>21</v>
+      </c>
+      <c r="J54">
+        <v>531</v>
+      </c>
+      <c r="K54">
+        <v>78</v>
+      </c>
+      <c r="L54">
+        <v>122</v>
+      </c>
+      <c r="M54">
+        <v>26</v>
+      </c>
+      <c r="N54">
+        <v>658</v>
+      </c>
+      <c r="O54">
+        <v>3</v>
+      </c>
+      <c r="P54">
+        <v>2</v>
+      </c>
+      <c r="Q54">
+        <v>2</v>
+      </c>
+      <c r="R54">
+        <v>194</v>
+      </c>
+      <c r="S54">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>88</v>
+      </c>
+      <c r="B55">
+        <v>14535</v>
+      </c>
+      <c r="C55">
+        <v>14659</v>
+      </c>
+      <c r="D55">
+        <v>131</v>
+      </c>
+      <c r="E55">
+        <v>7</v>
+      </c>
+      <c r="F55">
+        <v>14239</v>
+      </c>
+      <c r="G55">
+        <v>503</v>
+      </c>
+      <c r="H55">
+        <v>448</v>
+      </c>
+      <c r="I55">
+        <v>55</v>
+      </c>
+      <c r="J55">
+        <v>960</v>
+      </c>
+      <c r="K55">
+        <v>312</v>
+      </c>
+      <c r="L55">
+        <v>191</v>
+      </c>
+      <c r="M55">
+        <v>63</v>
+      </c>
+      <c r="N55">
+        <v>738</v>
+      </c>
+      <c r="O55">
+        <v>6</v>
+      </c>
+      <c r="P55">
+        <v>6</v>
+      </c>
+      <c r="Q55">
+        <v>7</v>
+      </c>
+      <c r="R55">
+        <v>134</v>
+      </c>
+      <c r="S55">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -1397,8 +4406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35502C9E-2F64-40CF-BD14-600C5499C1AA}">
   <dimension ref="A1:Z55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:V55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:Z55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1489,89 +4498,89 @@
       </c>
       <c r="B2">
         <f>raw!B2</f>
-        <v>0</v>
+        <v>59406</v>
       </c>
       <c r="C2">
         <f>raw!C2</f>
-        <v>0</v>
+        <v>59514</v>
       </c>
       <c r="D2">
         <f>raw!D2</f>
-        <v>0</v>
+        <v>355</v>
       </c>
       <c r="E2">
         <f>raw!E2</f>
-        <v>0</v>
+        <v>247</v>
       </c>
       <c r="F2">
         <f>raw!F2</f>
-        <v>0</v>
+        <v>58381</v>
       </c>
       <c r="I2">
         <f>raw!G2</f>
-        <v>0</v>
+        <v>5244</v>
       </c>
       <c r="J2">
         <f>raw!H2</f>
-        <v>0</v>
+        <v>3902</v>
       </c>
       <c r="K2">
         <f>raw!I2</f>
-        <v>0</v>
+        <v>1342</v>
       </c>
       <c r="L2">
         <f>raw!J2</f>
-        <v>0</v>
+        <v>10018</v>
       </c>
       <c r="M2">
         <f>raw!K2</f>
-        <v>0</v>
+        <v>2779</v>
       </c>
       <c r="N2">
         <f>raw!L2</f>
-        <v>0</v>
+        <v>2465</v>
       </c>
       <c r="P2">
         <f>raw!M2</f>
-        <v>0</v>
+        <v>509</v>
       </c>
       <c r="Q2">
         <f>raw!N2</f>
-        <v>0</v>
+        <v>6611</v>
       </c>
       <c r="R2">
         <f>raw!O2</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="S2">
         <f>raw!P2</f>
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="T2">
         <f>raw!Q2</f>
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="U2">
         <f>raw!R2</f>
-        <v>0</v>
+        <v>777</v>
       </c>
       <c r="V2">
         <f>raw!S2</f>
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="W2" t="s">
         <v>24</v>
       </c>
       <c r="X2">
         <f>raw!U2</f>
-        <v>0</v>
+        <v>403036</v>
       </c>
       <c r="Y2" t="s">
         <v>23</v>
       </c>
       <c r="Z2">
         <f>raw!W2</f>
-        <v>0</v>
+        <v>582</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
@@ -1580,75 +4589,75 @@
       </c>
       <c r="B3">
         <f>raw!B3</f>
-        <v>0</v>
+        <v>26795</v>
       </c>
       <c r="C3">
         <f>raw!C3</f>
-        <v>0</v>
+        <v>26375</v>
       </c>
       <c r="D3">
         <f>raw!D3</f>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="E3">
         <f>raw!E3</f>
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="F3">
         <f>raw!F3</f>
-        <v>0</v>
+        <v>25984</v>
       </c>
       <c r="I3">
         <f>raw!G3</f>
-        <v>0</v>
+        <v>2365</v>
       </c>
       <c r="J3">
         <f>raw!H3</f>
-        <v>0</v>
+        <v>1857</v>
       </c>
       <c r="K3">
         <f>raw!I3</f>
-        <v>0</v>
+        <v>508</v>
       </c>
       <c r="L3">
         <f>raw!J3</f>
-        <v>0</v>
+        <v>2826</v>
       </c>
       <c r="M3">
         <f>raw!K3</f>
-        <v>0</v>
+        <v>1328</v>
       </c>
       <c r="N3">
         <f>raw!L3</f>
-        <v>0</v>
+        <v>1036</v>
       </c>
       <c r="P3">
         <f>raw!M3</f>
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="Q3">
         <f>raw!N3</f>
-        <v>0</v>
+        <v>3761</v>
       </c>
       <c r="R3">
         <f>raw!O3</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="S3">
         <f>raw!P3</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="T3">
         <f>raw!Q3</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="U3">
         <f>raw!R3</f>
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="V3">
         <f>raw!S3</f>
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="W3" t="s">
         <v>101</v>
@@ -1658,7 +4667,7 @@
       </c>
       <c r="Z3">
         <f>raw!W3</f>
-        <v>0</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
@@ -1667,75 +4676,75 @@
       </c>
       <c r="B4">
         <f>raw!B4</f>
-        <v>0</v>
+        <v>64792</v>
       </c>
       <c r="C4">
         <f>raw!C4</f>
-        <v>0</v>
+        <v>65083</v>
       </c>
       <c r="D4">
         <f>raw!D4</f>
-        <v>0</v>
+        <v>614</v>
       </c>
       <c r="E4">
         <f>raw!E4</f>
-        <v>0</v>
+        <v>323</v>
       </c>
       <c r="F4">
         <f>raw!F4</f>
-        <v>0</v>
+        <v>62316</v>
       </c>
       <c r="I4">
         <f>raw!G4</f>
-        <v>0</v>
+        <v>7993</v>
       </c>
       <c r="J4">
         <f>raw!H4</f>
-        <v>0</v>
+        <v>5905</v>
       </c>
       <c r="K4">
         <f>raw!I4</f>
-        <v>0</v>
+        <v>2088</v>
       </c>
       <c r="L4">
         <f>raw!J4</f>
-        <v>0</v>
+        <v>13235</v>
       </c>
       <c r="M4">
         <f>raw!K4</f>
-        <v>0</v>
+        <v>3811</v>
       </c>
       <c r="N4">
         <f>raw!L4</f>
-        <v>0</v>
+        <v>4179</v>
       </c>
       <c r="P4">
         <f>raw!M4</f>
-        <v>0</v>
+        <v>807</v>
       </c>
       <c r="Q4">
         <f>raw!N4</f>
-        <v>0</v>
+        <v>6365</v>
       </c>
       <c r="R4">
         <f>raw!O4</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="S4">
         <f>raw!P4</f>
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="T4">
         <f>raw!Q4</f>
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="U4">
         <f>raw!R4</f>
-        <v>0</v>
+        <v>646</v>
       </c>
       <c r="V4">
         <f>raw!S4</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="W4" t="s">
         <v>103</v>
@@ -1745,7 +4754,7 @@
       </c>
       <c r="Z4">
         <f>raw!W4</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
@@ -1754,82 +4763,82 @@
       </c>
       <c r="B5">
         <f>raw!B5</f>
-        <v>0</v>
+        <v>12202</v>
       </c>
       <c r="C5">
         <f>raw!C5</f>
-        <v>0</v>
+        <v>12255</v>
       </c>
       <c r="D5">
         <f>raw!D5</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E5">
         <f>raw!E5</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <f>raw!F5</f>
-        <v>0</v>
+        <v>11978</v>
       </c>
       <c r="I5">
         <f>raw!G5</f>
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="J5">
         <f>raw!H5</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="K5">
         <f>raw!I5</f>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="L5">
         <f>raw!J5</f>
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="M5">
         <f>raw!K5</f>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="N5">
         <f>raw!L5</f>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="P5">
         <f>raw!M5</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q5">
         <f>raw!N5</f>
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="R5">
         <f>raw!O5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
         <f>raw!P5</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T5">
         <f>raw!Q5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
         <f>raw!R5</f>
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="V5">
         <f>raw!S5</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y5" t="s">
         <v>27</v>
       </c>
       <c r="Z5">
         <f>raw!W5</f>
-        <v>0</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -1838,82 +4847,82 @@
       </c>
       <c r="B6">
         <f>raw!B6</f>
-        <v>0</v>
+        <v>59392</v>
       </c>
       <c r="C6">
         <f>raw!C6</f>
-        <v>0</v>
+        <v>59696</v>
       </c>
       <c r="D6">
         <f>raw!D6</f>
-        <v>0</v>
+        <v>394</v>
       </c>
       <c r="E6">
         <f>raw!E6</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F6">
         <f>raw!F6</f>
-        <v>0</v>
+        <v>57544</v>
       </c>
       <c r="I6">
         <f>raw!G6</f>
-        <v>0</v>
+        <v>4721</v>
       </c>
       <c r="J6">
         <f>raw!H6</f>
-        <v>0</v>
+        <v>3581</v>
       </c>
       <c r="K6">
         <f>raw!I6</f>
-        <v>0</v>
+        <v>1140</v>
       </c>
       <c r="L6">
         <f>raw!J6</f>
-        <v>0</v>
+        <v>9549</v>
       </c>
       <c r="M6">
         <f>raw!K6</f>
-        <v>0</v>
+        <v>2333</v>
       </c>
       <c r="N6">
         <f>raw!L6</f>
-        <v>0</v>
+        <v>2385</v>
       </c>
       <c r="P6">
         <f>raw!M6</f>
-        <v>0</v>
+        <v>561</v>
       </c>
       <c r="Q6">
         <f>raw!N6</f>
-        <v>0</v>
+        <v>12003</v>
       </c>
       <c r="R6">
         <f>raw!O6</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="S6">
         <f>raw!P6</f>
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="T6">
         <f>raw!Q6</f>
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="U6">
         <f>raw!R6</f>
-        <v>0</v>
+        <v>845</v>
       </c>
       <c r="V6">
         <f>raw!S6</f>
-        <v>0</v>
+        <v>892</v>
       </c>
       <c r="Y6" t="s">
         <v>31</v>
       </c>
       <c r="Z6">
         <f>raw!W6</f>
-        <v>0</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
@@ -1922,82 +4931,82 @@
       </c>
       <c r="B7">
         <f>raw!B7</f>
-        <v>0</v>
+        <v>14674</v>
       </c>
       <c r="C7">
         <f>raw!C7</f>
-        <v>0</v>
+        <v>14707</v>
       </c>
       <c r="D7">
         <f>raw!D7</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E7">
         <f>raw!E7</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F7">
         <f>raw!F7</f>
-        <v>0</v>
+        <v>14606</v>
       </c>
       <c r="I7">
         <f>raw!G7</f>
-        <v>0</v>
+        <v>633</v>
       </c>
       <c r="J7">
         <f>raw!H7</f>
-        <v>0</v>
+        <v>531</v>
       </c>
       <c r="K7">
         <f>raw!I7</f>
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="L7">
         <f>raw!J7</f>
-        <v>0</v>
+        <v>991</v>
       </c>
       <c r="M7">
         <f>raw!K7</f>
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="N7">
         <f>raw!L7</f>
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="P7">
         <f>raw!M7</f>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="Q7">
         <f>raw!N7</f>
-        <v>0</v>
+        <v>604</v>
       </c>
       <c r="R7">
         <f>raw!O7</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S7">
         <f>raw!P7</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T7">
         <f>raw!Q7</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U7">
         <f>raw!R7</f>
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="V7">
         <f>raw!S7</f>
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="Y7" t="s">
         <v>29</v>
       </c>
       <c r="Z7">
         <f>raw!W7</f>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
@@ -2006,82 +5015,82 @@
       </c>
       <c r="B8">
         <f>raw!B8</f>
-        <v>0</v>
+        <v>9762</v>
       </c>
       <c r="C8">
         <f>raw!C8</f>
-        <v>0</v>
+        <v>10034</v>
       </c>
       <c r="D8">
         <f>raw!D8</f>
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="E8">
         <f>raw!E8</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="F8">
         <f>raw!F8</f>
-        <v>0</v>
+        <v>9889</v>
       </c>
       <c r="I8">
         <f>raw!G8</f>
-        <v>0</v>
+        <v>685</v>
       </c>
       <c r="J8">
         <f>raw!H8</f>
-        <v>0</v>
+        <v>599</v>
       </c>
       <c r="K8">
         <f>raw!I8</f>
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="L8">
         <f>raw!J8</f>
-        <v>0</v>
+        <v>993</v>
       </c>
       <c r="M8">
         <f>raw!K8</f>
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="N8">
         <f>raw!L8</f>
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="P8">
         <f>raw!M8</f>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="Q8">
         <f>raw!N8</f>
-        <v>0</v>
+        <v>615</v>
       </c>
       <c r="R8">
         <f>raw!O8</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S8">
         <f>raw!P8</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T8">
         <f>raw!Q8</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U8">
         <f>raw!R8</f>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="V8">
         <f>raw!S8</f>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="Y8" t="s">
         <v>30</v>
       </c>
       <c r="Z8">
         <f>raw!W8</f>
-        <v>0</v>
+        <v>515</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
@@ -2090,55 +5099,55 @@
       </c>
       <c r="B9">
         <f>raw!B9</f>
-        <v>0</v>
+        <v>7869</v>
       </c>
       <c r="C9">
         <f>raw!C9</f>
-        <v>0</v>
+        <v>7889</v>
       </c>
       <c r="D9">
         <f>raw!D9</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E9">
         <f>raw!E9</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F9">
         <f>raw!F9</f>
-        <v>0</v>
+        <v>7775</v>
       </c>
       <c r="I9">
         <f>raw!G9</f>
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="J9">
         <f>raw!H9</f>
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="K9">
         <f>raw!I9</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L9">
         <f>raw!J9</f>
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="M9">
         <f>raw!K9</f>
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="N9">
         <f>raw!L9</f>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="P9">
         <f>raw!M9</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Q9">
         <f>raw!N9</f>
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="R9">
         <f>raw!O9</f>
@@ -2146,7 +5155,7 @@
       </c>
       <c r="S9">
         <f>raw!P9</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T9">
         <f>raw!Q9</f>
@@ -2154,18 +5163,18 @@
       </c>
       <c r="U9">
         <f>raw!R9</f>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="V9">
         <f>raw!S9</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y9" t="s">
         <v>32</v>
       </c>
       <c r="Z9">
         <f>raw!W9</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
@@ -2174,31 +5183,31 @@
       </c>
       <c r="B10">
         <f>raw!B10</f>
-        <v>0</v>
+        <v>5216</v>
       </c>
       <c r="C10">
         <f>raw!C10</f>
-        <v>0</v>
+        <v>5221</v>
       </c>
       <c r="D10">
         <f>raw!D10</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <f>raw!E10</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <f>raw!F10</f>
-        <v>0</v>
+        <v>5149</v>
       </c>
       <c r="I10">
         <f>raw!G10</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10">
         <f>raw!H10</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K10">
         <f>raw!I10</f>
@@ -2206,11 +5215,11 @@
       </c>
       <c r="L10">
         <f>raw!J10</f>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="M10">
         <f>raw!K10</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N10">
         <f>raw!L10</f>
@@ -2218,11 +5227,11 @@
       </c>
       <c r="P10">
         <f>raw!M10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
         <f>raw!N10</f>
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="R10">
         <f>raw!O10</f>
@@ -2230,15 +5239,15 @@
       </c>
       <c r="S10">
         <f>raw!P10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10">
         <f>raw!Q10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10">
         <f>raw!R10</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="V10">
         <f>raw!S10</f>
@@ -2249,7 +5258,7 @@
       </c>
       <c r="Z10">
         <f>raw!W10</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
@@ -2258,11 +5267,11 @@
       </c>
       <c r="B11">
         <f>raw!B11</f>
-        <v>0</v>
+        <v>362</v>
       </c>
       <c r="C11">
         <f>raw!C11</f>
-        <v>0</v>
+        <v>361</v>
       </c>
       <c r="D11">
         <f>raw!D11</f>
@@ -2270,11 +5279,11 @@
       </c>
       <c r="E11">
         <f>raw!E11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <f>raw!F11</f>
-        <v>0</v>
+        <v>361</v>
       </c>
       <c r="I11">
         <f>raw!G11</f>
@@ -2306,7 +5315,7 @@
       </c>
       <c r="Q11">
         <f>raw!N11</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R11">
         <f>raw!O11</f>
@@ -2318,7 +5327,7 @@
       </c>
       <c r="T11">
         <f>raw!Q11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11">
         <f>raw!R11</f>
@@ -2333,7 +5342,7 @@
       </c>
       <c r="Z11">
         <f>raw!W11</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
@@ -2342,75 +5351,75 @@
       </c>
       <c r="B12">
         <f>raw!B12</f>
-        <v>0</v>
+        <v>2570</v>
       </c>
       <c r="C12">
         <f>raw!C12</f>
-        <v>0</v>
+        <v>2574</v>
       </c>
       <c r="D12">
         <f>raw!D12</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <f>raw!E12</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F12">
         <f>raw!F12</f>
-        <v>0</v>
+        <v>2520</v>
       </c>
       <c r="I12">
         <f>raw!G12</f>
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="J12">
         <f>raw!H12</f>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="K12">
         <f>raw!I12</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L12">
         <f>raw!J12</f>
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="M12">
         <f>raw!K12</f>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="N12">
         <f>raw!L12</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P12">
         <f>raw!M12</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q12">
         <f>raw!N12</f>
-        <v>0</v>
+        <v>509</v>
       </c>
       <c r="R12">
         <f>raw!O12</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S12">
         <f>raw!P12</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T12">
         <f>raw!Q12</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U12">
         <f>raw!R12</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="V12">
         <f>raw!S12</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Y12" t="s">
         <v>35</v>
@@ -2426,82 +5435,82 @@
       </c>
       <c r="B13">
         <f>raw!B13</f>
-        <v>0</v>
+        <v>4963</v>
       </c>
       <c r="C13">
         <f>raw!C13</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="D13">
         <f>raw!D13</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="E13">
         <f>raw!E13</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F13">
         <f>raw!F13</f>
-        <v>0</v>
+        <v>4898</v>
       </c>
       <c r="I13">
         <f>raw!G13</f>
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="J13">
         <f>raw!H13</f>
-        <v>0</v>
+        <v>296</v>
       </c>
       <c r="K13">
         <f>raw!I13</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L13">
         <f>raw!J13</f>
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="M13">
         <f>raw!K13</f>
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="N13">
         <f>raw!L13</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="P13">
         <f>raw!M13</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="Q13">
         <f>raw!N13</f>
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="R13">
         <f>raw!O13</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S13">
         <f>raw!P13</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T13">
         <f>raw!Q13</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U13">
         <f>raw!R13</f>
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="V13">
         <f>raw!S13</f>
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="Y13" t="s">
         <v>40</v>
       </c>
       <c r="Z13">
         <f>raw!W13</f>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -2510,82 +5519,82 @@
       </c>
       <c r="B14">
         <f>raw!B14</f>
-        <v>0</v>
+        <v>11374</v>
       </c>
       <c r="C14">
         <f>raw!C14</f>
-        <v>0</v>
+        <v>11289</v>
       </c>
       <c r="D14">
         <f>raw!D14</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="E14">
         <f>raw!E14</f>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="F14">
         <f>raw!F14</f>
-        <v>0</v>
+        <v>11044</v>
       </c>
       <c r="I14">
         <f>raw!G14</f>
-        <v>0</v>
+        <v>539</v>
       </c>
       <c r="J14">
         <f>raw!H14</f>
-        <v>0</v>
+        <v>496</v>
       </c>
       <c r="K14">
         <f>raw!I14</f>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="L14">
         <f>raw!J14</f>
-        <v>0</v>
+        <v>2424</v>
       </c>
       <c r="M14">
         <f>raw!K14</f>
-        <v>0</v>
+        <v>356</v>
       </c>
       <c r="N14">
         <f>raw!L14</f>
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="P14">
         <f>raw!M14</f>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="Q14">
         <f>raw!N14</f>
-        <v>0</v>
+        <v>1095</v>
       </c>
       <c r="R14">
         <f>raw!O14</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S14">
         <f>raw!P14</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="T14">
         <f>raw!Q14</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="U14">
         <f>raw!R14</f>
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="V14">
         <f>raw!S14</f>
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="Y14" t="s">
         <v>42</v>
       </c>
       <c r="Z14">
         <f>raw!W14</f>
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
@@ -2594,82 +5603,82 @@
       </c>
       <c r="B15">
         <f>raw!B15</f>
-        <v>0</v>
+        <v>7647</v>
       </c>
       <c r="C15">
         <f>raw!C15</f>
-        <v>0</v>
+        <v>7672</v>
       </c>
       <c r="D15">
         <f>raw!D15</f>
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="E15">
         <f>raw!E15</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="F15">
         <f>raw!F15</f>
-        <v>0</v>
+        <v>7549</v>
       </c>
       <c r="I15">
         <f>raw!G15</f>
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="J15">
         <f>raw!H15</f>
-        <v>0</v>
+        <v>247</v>
       </c>
       <c r="K15">
         <f>raw!I15</f>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="L15">
         <f>raw!J15</f>
-        <v>0</v>
+        <v>727</v>
       </c>
       <c r="M15">
         <f>raw!K15</f>
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="N15">
         <f>raw!L15</f>
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="P15">
         <f>raw!M15</f>
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="Q15">
         <f>raw!N15</f>
-        <v>0</v>
+        <v>696</v>
       </c>
       <c r="R15">
         <f>raw!O15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15">
         <f>raw!P15</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T15">
         <f>raw!Q15</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U15">
         <f>raw!R15</f>
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="V15">
         <f>raw!S15</f>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="Y15" t="s">
         <v>44</v>
       </c>
       <c r="Z15">
         <f>raw!W15</f>
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
@@ -2678,55 +5687,55 @@
       </c>
       <c r="B16">
         <f>raw!B16</f>
-        <v>0</v>
+        <v>8439</v>
       </c>
       <c r="C16">
         <f>raw!C16</f>
-        <v>0</v>
+        <v>8489</v>
       </c>
       <c r="D16">
         <f>raw!D16</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="E16">
         <f>raw!E16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <f>raw!F16</f>
-        <v>0</v>
+        <v>8383</v>
       </c>
       <c r="I16">
         <f>raw!G16</f>
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="J16">
         <f>raw!H16</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K16">
         <f>raw!I16</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="L16">
         <f>raw!J16</f>
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="M16">
         <f>raw!K16</f>
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="N16">
         <f>raw!L16</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="P16">
         <f>raw!M16</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Q16">
         <f>raw!N16</f>
-        <v>0</v>
+        <v>316</v>
       </c>
       <c r="R16">
         <f>raw!O16</f>
@@ -2734,26 +5743,26 @@
       </c>
       <c r="S16">
         <f>raw!P16</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T16">
         <f>raw!Q16</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U16">
         <f>raw!R16</f>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="V16">
         <f>raw!S16</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y16" t="s">
         <v>45</v>
       </c>
       <c r="Z16">
         <f>raw!W16</f>
-        <v>0</v>
+        <v>428</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
@@ -2762,82 +5771,82 @@
       </c>
       <c r="B17">
         <f>raw!B17</f>
-        <v>0</v>
+        <v>16310</v>
       </c>
       <c r="C17">
         <f>raw!C17</f>
-        <v>0</v>
+        <v>16447</v>
       </c>
       <c r="D17">
         <f>raw!D17</f>
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="E17">
         <f>raw!E17</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F17">
         <f>raw!F17</f>
-        <v>0</v>
+        <v>16224</v>
       </c>
       <c r="I17">
         <f>raw!G17</f>
-        <v>0</v>
+        <v>1743</v>
       </c>
       <c r="J17">
         <f>raw!H17</f>
-        <v>0</v>
+        <v>1264</v>
       </c>
       <c r="K17">
         <f>raw!I17</f>
-        <v>0</v>
+        <v>479</v>
       </c>
       <c r="L17">
         <f>raw!J17</f>
-        <v>0</v>
+        <v>2478</v>
       </c>
       <c r="M17">
         <f>raw!K17</f>
-        <v>0</v>
+        <v>696</v>
       </c>
       <c r="N17">
         <f>raw!L17</f>
-        <v>0</v>
+        <v>1047</v>
       </c>
       <c r="P17">
         <f>raw!M17</f>
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="Q17">
         <f>raw!N17</f>
-        <v>0</v>
+        <v>2109</v>
       </c>
       <c r="R17">
         <f>raw!O17</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S17">
         <f>raw!P17</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="T17">
         <f>raw!Q17</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U17">
         <f>raw!R17</f>
-        <v>0</v>
+        <v>289</v>
       </c>
       <c r="V17">
         <f>raw!S17</f>
-        <v>0</v>
+        <v>429</v>
       </c>
       <c r="Y17" t="s">
         <v>47</v>
       </c>
       <c r="Z17">
         <f>raw!W17</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
@@ -2846,59 +5855,59 @@
       </c>
       <c r="B18">
         <f>raw!B18</f>
-        <v>0</v>
+        <v>11890</v>
       </c>
       <c r="C18">
         <f>raw!C18</f>
-        <v>0</v>
+        <v>12014</v>
       </c>
       <c r="D18">
         <f>raw!D18</f>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="E18">
         <f>raw!E18</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <f>raw!F18</f>
-        <v>0</v>
+        <v>11872</v>
       </c>
       <c r="I18">
         <f>raw!G18</f>
-        <v>0</v>
+        <v>382</v>
       </c>
       <c r="J18">
         <f>raw!H18</f>
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="K18">
         <f>raw!I18</f>
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="L18">
         <f>raw!J18</f>
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="M18">
         <f>raw!K18</f>
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="N18">
         <f>raw!L18</f>
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="P18">
         <f>raw!M18</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Q18">
         <f>raw!N18</f>
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="R18">
         <f>raw!O18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18">
         <f>raw!P18</f>
@@ -2906,22 +5915,22 @@
       </c>
       <c r="T18">
         <f>raw!Q18</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U18">
         <f>raw!R18</f>
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="V18">
         <f>raw!S18</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="Y18" t="s">
         <v>49</v>
       </c>
       <c r="Z18">
         <f>raw!W18</f>
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
@@ -2930,82 +5939,82 @@
       </c>
       <c r="B19">
         <f>raw!B19</f>
-        <v>0</v>
+        <v>30308</v>
       </c>
       <c r="C19">
         <f>raw!C19</f>
-        <v>0</v>
+        <v>30399</v>
       </c>
       <c r="D19">
         <f>raw!D19</f>
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="E19">
         <f>raw!E19</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="F19">
         <f>raw!F19</f>
-        <v>0</v>
+        <v>29803</v>
       </c>
       <c r="I19">
         <f>raw!G19</f>
-        <v>0</v>
+        <v>2380</v>
       </c>
       <c r="J19">
         <f>raw!H19</f>
-        <v>0</v>
+        <v>1990</v>
       </c>
       <c r="K19">
         <f>raw!I19</f>
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="L19">
         <f>raw!J19</f>
-        <v>0</v>
+        <v>3325</v>
       </c>
       <c r="M19">
         <f>raw!K19</f>
-        <v>0</v>
+        <v>1203</v>
       </c>
       <c r="N19">
         <f>raw!L19</f>
-        <v>0</v>
+        <v>1176</v>
       </c>
       <c r="P19">
         <f>raw!M19</f>
-        <v>0</v>
+        <v>279</v>
       </c>
       <c r="Q19">
         <f>raw!N19</f>
-        <v>0</v>
+        <v>2638</v>
       </c>
       <c r="R19">
         <f>raw!O19</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S19">
         <f>raw!P19</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="T19">
         <f>raw!Q19</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="U19">
         <f>raw!R19</f>
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="V19">
         <f>raw!S19</f>
-        <v>0</v>
+        <v>444</v>
       </c>
       <c r="Y19" t="s">
         <v>51</v>
       </c>
       <c r="Z19">
         <f>raw!W19</f>
-        <v>0</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
@@ -3014,82 +6023,82 @@
       </c>
       <c r="B20">
         <f>raw!B20</f>
-        <v>0</v>
+        <v>5153</v>
       </c>
       <c r="C20">
         <f>raw!C20</f>
-        <v>0</v>
+        <v>5169</v>
       </c>
       <c r="D20">
         <f>raw!D20</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <f>raw!E20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <f>raw!F20</f>
-        <v>0</v>
+        <v>4841</v>
       </c>
       <c r="I20">
         <f>raw!G20</f>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="J20">
         <f>raw!H20</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="K20">
         <f>raw!I20</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L20">
         <f>raw!J20</f>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="M20">
         <f>raw!K20</f>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="N20">
         <f>raw!L20</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P20">
         <f>raw!M20</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q20">
         <f>raw!N20</f>
-        <v>0</v>
+        <v>7845</v>
       </c>
       <c r="R20">
         <f>raw!O20</f>
-        <v>0</v>
+        <v>2301</v>
       </c>
       <c r="S20">
         <f>raw!P20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20">
         <f>raw!Q20</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U20">
         <f>raw!R20</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V20">
         <f>raw!S20</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y20" t="s">
         <v>52</v>
       </c>
       <c r="Z20">
         <f>raw!W20</f>
-        <v>0</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
@@ -3098,15 +6107,15 @@
       </c>
       <c r="B21">
         <f>raw!B21</f>
-        <v>0</v>
+        <v>26852</v>
       </c>
       <c r="C21">
         <f>raw!C21</f>
-        <v>0</v>
+        <v>26936</v>
       </c>
       <c r="D21">
         <f>raw!D21</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="E21">
         <f>raw!E21</f>
@@ -3114,66 +6123,66 @@
       </c>
       <c r="F21">
         <f>raw!F21</f>
-        <v>0</v>
+        <v>26350</v>
       </c>
       <c r="I21">
         <f>raw!G21</f>
-        <v>0</v>
+        <v>2325</v>
       </c>
       <c r="J21">
         <f>raw!H21</f>
-        <v>0</v>
+        <v>1859</v>
       </c>
       <c r="K21">
         <f>raw!I21</f>
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="L21">
         <f>raw!J21</f>
-        <v>0</v>
+        <v>2975</v>
       </c>
       <c r="M21">
         <f>raw!K21</f>
-        <v>0</v>
+        <v>1483</v>
       </c>
       <c r="N21">
         <f>raw!L21</f>
-        <v>0</v>
+        <v>842</v>
       </c>
       <c r="P21">
         <f>raw!M21</f>
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="Q21">
         <f>raw!N21</f>
-        <v>0</v>
+        <v>3997</v>
       </c>
       <c r="R21">
         <f>raw!O21</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S21">
         <f>raw!P21</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="T21">
         <f>raw!Q21</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="U21">
         <f>raw!R21</f>
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="V21">
         <f>raw!S21</f>
-        <v>0</v>
+        <v>463</v>
       </c>
       <c r="Y21" t="s">
         <v>54</v>
       </c>
       <c r="Z21">
         <f>raw!W21</f>
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
@@ -3182,82 +6191,82 @@
       </c>
       <c r="B22">
         <f>raw!B22</f>
-        <v>0</v>
+        <v>14127</v>
       </c>
       <c r="C22">
         <f>raw!C22</f>
-        <v>0</v>
+        <v>14137</v>
       </c>
       <c r="D22">
         <f>raw!D22</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E22">
         <f>raw!E22</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F22">
         <f>raw!F22</f>
-        <v>0</v>
+        <v>13622</v>
       </c>
       <c r="I22">
         <f>raw!G22</f>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="J22">
         <f>raw!H22</f>
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="K22">
         <f>raw!I22</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L22">
         <f>raw!J22</f>
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="M22">
         <f>raw!K22</f>
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="N22">
         <f>raw!L22</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="P22">
         <f>raw!M22</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Q22">
         <f>raw!N22</f>
-        <v>0</v>
+        <v>1202</v>
       </c>
       <c r="R22">
         <f>raw!O22</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S22">
         <f>raw!P22</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T22">
         <f>raw!Q22</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U22">
         <f>raw!R22</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="V22">
         <f>raw!S22</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y22" t="s">
         <v>55</v>
       </c>
       <c r="Z22">
         <f>raw!W22</f>
-        <v>0</v>
+        <v>529</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
@@ -3266,82 +6275,82 @@
       </c>
       <c r="B23">
         <f>raw!B23</f>
-        <v>0</v>
+        <v>22669</v>
       </c>
       <c r="C23">
         <f>raw!C23</f>
-        <v>0</v>
+        <v>22808</v>
       </c>
       <c r="D23">
         <f>raw!D23</f>
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="E23">
         <f>raw!E23</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F23">
         <f>raw!F23</f>
-        <v>0</v>
+        <v>22335</v>
       </c>
       <c r="I23">
         <f>raw!G23</f>
-        <v>0</v>
+        <v>1256</v>
       </c>
       <c r="J23">
         <f>raw!H23</f>
-        <v>0</v>
+        <v>1008</v>
       </c>
       <c r="K23">
         <f>raw!I23</f>
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="L23">
         <f>raw!J23</f>
-        <v>0</v>
+        <v>2697</v>
       </c>
       <c r="M23">
         <f>raw!K23</f>
-        <v>0</v>
+        <v>708</v>
       </c>
       <c r="N23">
         <f>raw!L23</f>
-        <v>0</v>
+        <v>547</v>
       </c>
       <c r="P23">
         <f>raw!M23</f>
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="Q23">
         <f>raw!N23</f>
-        <v>0</v>
+        <v>3102</v>
       </c>
       <c r="R23">
         <f>raw!O23</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="S23">
         <f>raw!P23</f>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="T23">
         <f>raw!Q23</f>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="U23">
         <f>raw!R23</f>
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="V23">
         <f>raw!S23</f>
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="Y23" t="s">
         <v>57</v>
       </c>
       <c r="Z23">
         <f>raw!W23</f>
-        <v>0</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -3350,82 +6359,82 @@
       </c>
       <c r="B24">
         <f>raw!B24</f>
-        <v>0</v>
+        <v>91679</v>
       </c>
       <c r="C24">
         <f>raw!C24</f>
-        <v>0</v>
+        <v>90354</v>
       </c>
       <c r="D24">
         <f>raw!D24</f>
-        <v>0</v>
+        <v>496</v>
       </c>
       <c r="E24">
         <f>raw!E24</f>
-        <v>0</v>
+        <v>1821</v>
       </c>
       <c r="F24">
         <f>raw!F24</f>
-        <v>0</v>
+        <v>83249</v>
       </c>
       <c r="I24">
         <f>raw!G24</f>
-        <v>0</v>
+        <v>9252</v>
       </c>
       <c r="J24">
         <f>raw!H24</f>
-        <v>0</v>
+        <v>7436</v>
       </c>
       <c r="K24">
         <f>raw!I24</f>
-        <v>0</v>
+        <v>1816</v>
       </c>
       <c r="L24">
         <f>raw!J24</f>
-        <v>0</v>
+        <v>13576</v>
       </c>
       <c r="M24">
         <f>raw!K24</f>
-        <v>0</v>
+        <v>4764</v>
       </c>
       <c r="N24">
         <f>raw!L24</f>
-        <v>0</v>
+        <v>4476</v>
       </c>
       <c r="P24">
         <f>raw!M24</f>
-        <v>0</v>
+        <v>888</v>
       </c>
       <c r="Q24">
         <f>raw!N24</f>
-        <v>0</v>
+        <v>15084</v>
       </c>
       <c r="R24">
         <f>raw!O24</f>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="S24">
         <f>raw!P24</f>
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="T24">
         <f>raw!Q24</f>
-        <v>0</v>
+        <v>307</v>
       </c>
       <c r="U24">
         <f>raw!R24</f>
-        <v>0</v>
+        <v>1102</v>
       </c>
       <c r="V24">
         <f>raw!S24</f>
-        <v>0</v>
+        <v>1007</v>
       </c>
       <c r="Y24" t="s">
         <v>58</v>
       </c>
       <c r="Z24">
         <f>raw!W24</f>
-        <v>0</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
@@ -3434,82 +6443,82 @@
       </c>
       <c r="B25">
         <f>raw!B25</f>
-        <v>0</v>
+        <v>13276</v>
       </c>
       <c r="C25">
         <f>raw!C25</f>
-        <v>0</v>
+        <v>12960</v>
       </c>
       <c r="D25">
         <f>raw!D25</f>
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="E25">
         <f>raw!E25</f>
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="F25">
         <f>raw!F25</f>
-        <v>0</v>
+        <v>12810</v>
       </c>
       <c r="I25">
         <f>raw!G25</f>
-        <v>0</v>
+        <v>555</v>
       </c>
       <c r="J25">
         <f>raw!H25</f>
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="K25">
         <f>raw!I25</f>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="L25">
         <f>raw!J25</f>
-        <v>0</v>
+        <v>937</v>
       </c>
       <c r="M25">
         <f>raw!K25</f>
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="N25">
         <f>raw!L25</f>
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="P25">
         <f>raw!M25</f>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="Q25">
         <f>raw!N25</f>
-        <v>0</v>
+        <v>622</v>
       </c>
       <c r="R25">
         <f>raw!O25</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S25">
         <f>raw!P25</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T25">
         <f>raw!Q25</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U25">
         <f>raw!R25</f>
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="V25">
         <f>raw!S25</f>
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="Y25" t="s">
         <v>59</v>
       </c>
       <c r="Z25">
         <f>raw!W25</f>
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
@@ -3566,19 +6575,19 @@
       </c>
       <c r="Q26">
         <f>raw!N26</f>
-        <v>0</v>
+        <v>488</v>
       </c>
       <c r="R26">
         <f>raw!O26</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S26">
         <f>raw!P26</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T26">
         <f>raw!Q26</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26">
         <f>raw!R26</f>
@@ -3593,7 +6602,7 @@
       </c>
       <c r="Z26">
         <f>raw!W26</f>
-        <v>0</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
@@ -3602,82 +6611,82 @@
       </c>
       <c r="B27">
         <f>raw!B27</f>
-        <v>0</v>
+        <v>14587</v>
       </c>
       <c r="C27">
         <f>raw!C27</f>
-        <v>0</v>
+        <v>14544</v>
       </c>
       <c r="D27">
         <f>raw!D27</f>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E27">
         <f>raw!E27</f>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="F27">
         <f>raw!F27</f>
-        <v>0</v>
+        <v>14290</v>
       </c>
       <c r="I27">
         <f>raw!G27</f>
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="J27">
         <f>raw!H27</f>
-        <v>0</v>
+        <v>531</v>
       </c>
       <c r="K27">
         <f>raw!I27</f>
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="L27">
         <f>raw!J27</f>
-        <v>0</v>
+        <v>1115</v>
       </c>
       <c r="M27">
         <f>raw!K27</f>
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="N27">
         <f>raw!L27</f>
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="P27">
         <f>raw!M27</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="Q27">
         <f>raw!N27</f>
-        <v>0</v>
+        <v>962</v>
       </c>
       <c r="R27">
         <f>raw!O27</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S27">
         <f>raw!P27</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T27">
         <f>raw!Q27</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U27">
         <f>raw!R27</f>
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="V27">
         <f>raw!S27</f>
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="Y27" t="s">
         <v>61</v>
       </c>
       <c r="Z27">
         <f>raw!W27</f>
-        <v>0</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
@@ -3686,82 +6695,82 @@
       </c>
       <c r="B28">
         <f>raw!B28</f>
-        <v>0</v>
+        <v>3801</v>
       </c>
       <c r="C28">
         <f>raw!C28</f>
-        <v>0</v>
+        <v>3815</v>
       </c>
       <c r="D28">
         <f>raw!D28</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E28">
         <f>raw!E28</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <f>raw!F28</f>
-        <v>0</v>
+        <v>3803</v>
       </c>
       <c r="I28">
         <f>raw!G28</f>
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="J28">
         <f>raw!H28</f>
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="K28">
         <f>raw!I28</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="L28">
         <f>raw!J28</f>
-        <v>0</v>
+        <v>427</v>
       </c>
       <c r="M28">
         <f>raw!K28</f>
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="N28">
         <f>raw!L28</f>
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="P28">
         <f>raw!M28</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q28">
         <f>raw!N28</f>
-        <v>0</v>
+        <v>539</v>
       </c>
       <c r="R28">
         <f>raw!O28</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S28">
         <f>raw!P28</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T28">
         <f>raw!Q28</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U28">
         <f>raw!R28</f>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="V28">
         <f>raw!S28</f>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="Y28" t="s">
         <v>62</v>
       </c>
       <c r="Z28">
         <f>raw!W28</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
@@ -3770,82 +6779,82 @@
       </c>
       <c r="B29">
         <f>raw!B29</f>
-        <v>0</v>
+        <v>16211</v>
       </c>
       <c r="C29">
         <f>raw!C29</f>
-        <v>0</v>
+        <v>16267</v>
       </c>
       <c r="D29">
         <f>raw!D29</f>
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="E29">
         <f>raw!E29</f>
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="F29">
         <f>raw!F29</f>
-        <v>0</v>
+        <v>16127</v>
       </c>
       <c r="I29">
         <f>raw!G29</f>
-        <v>0</v>
+        <v>1810</v>
       </c>
       <c r="J29">
         <f>raw!H29</f>
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="K29">
         <f>raw!I29</f>
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="L29">
         <f>raw!J29</f>
-        <v>0</v>
+        <v>2634</v>
       </c>
       <c r="M29">
         <f>raw!K29</f>
-        <v>0</v>
+        <v>829</v>
       </c>
       <c r="N29">
         <f>raw!L29</f>
-        <v>0</v>
+        <v>981</v>
       </c>
       <c r="P29">
         <f>raw!M29</f>
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="Q29">
         <f>raw!N29</f>
-        <v>0</v>
+        <v>1765</v>
       </c>
       <c r="R29">
         <f>raw!O29</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S29">
         <f>raw!P29</f>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="T29">
         <f>raw!Q29</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U29">
         <f>raw!R29</f>
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="V29">
         <f>raw!S29</f>
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="Y29" t="s">
         <v>63</v>
       </c>
       <c r="Z29">
         <f>raw!W29</f>
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
@@ -3854,59 +6863,59 @@
       </c>
       <c r="B30">
         <f>raw!B30</f>
-        <v>0</v>
+        <v>692</v>
       </c>
       <c r="C30">
         <f>raw!C30</f>
-        <v>0</v>
+        <v>738</v>
       </c>
       <c r="D30">
         <f>raw!D30</f>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="E30">
         <f>raw!E30</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F30">
         <f>raw!F30</f>
-        <v>0</v>
+        <v>662</v>
       </c>
       <c r="I30">
         <f>raw!G30</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J30">
         <f>raw!H30</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="K30">
         <f>raw!I30</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L30">
         <f>raw!J30</f>
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="M30">
         <f>raw!K30</f>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="N30">
         <f>raw!L30</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="P30">
         <f>raw!M30</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q30">
         <f>raw!N30</f>
-        <v>0</v>
+        <v>328</v>
       </c>
       <c r="R30">
         <f>raw!O30</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30">
         <f>raw!P30</f>
@@ -3914,22 +6923,22 @@
       </c>
       <c r="T30">
         <f>raw!Q30</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="U30">
         <f>raw!R30</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="V30">
         <f>raw!S30</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Y30" t="s">
         <v>64</v>
       </c>
       <c r="Z30">
         <f>raw!W30</f>
-        <v>0</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
@@ -3938,55 +6947,55 @@
       </c>
       <c r="B31">
         <f>raw!B31</f>
-        <v>0</v>
+        <v>18719</v>
       </c>
       <c r="C31">
         <f>raw!C31</f>
-        <v>0</v>
+        <v>18823</v>
       </c>
       <c r="D31">
         <f>raw!D31</f>
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="E31">
         <f>raw!E31</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F31">
         <f>raw!F31</f>
-        <v>0</v>
+        <v>18223</v>
       </c>
       <c r="I31">
         <f>raw!G31</f>
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="J31">
         <f>raw!H31</f>
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="K31">
         <f>raw!I31</f>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="L31">
         <f>raw!J31</f>
-        <v>0</v>
+        <v>662</v>
       </c>
       <c r="M31">
         <f>raw!K31</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N31">
         <f>raw!L31</f>
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="P31">
         <f>raw!M31</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Q31">
         <f>raw!N31</f>
-        <v>0</v>
+        <v>511</v>
       </c>
       <c r="R31">
         <f>raw!O31</f>
@@ -3994,26 +7003,26 @@
       </c>
       <c r="S31">
         <f>raw!P31</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T31">
         <f>raw!Q31</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U31">
         <f>raw!R31</f>
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="V31">
         <f>raw!S31</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y31" t="s">
         <v>65</v>
       </c>
       <c r="Z31">
         <f>raw!W31</f>
-        <v>0</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
@@ -4022,82 +7031,82 @@
       </c>
       <c r="B32">
         <f>raw!B32</f>
-        <v>0</v>
+        <v>23442</v>
       </c>
       <c r="C32">
         <f>raw!C32</f>
-        <v>0</v>
+        <v>23521</v>
       </c>
       <c r="D32">
         <f>raw!D32</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="E32">
         <f>raw!E32</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="F32">
         <f>raw!F32</f>
-        <v>0</v>
+        <v>23380</v>
       </c>
       <c r="I32">
         <f>raw!G32</f>
-        <v>0</v>
+        <v>1857</v>
       </c>
       <c r="J32">
         <f>raw!H32</f>
-        <v>0</v>
+        <v>1670</v>
       </c>
       <c r="K32">
         <f>raw!I32</f>
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="L32">
         <f>raw!J32</f>
-        <v>0</v>
+        <v>3074</v>
       </c>
       <c r="M32">
         <f>raw!K32</f>
-        <v>0</v>
+        <v>1301</v>
       </c>
       <c r="N32">
         <f>raw!L32</f>
-        <v>0</v>
+        <v>556</v>
       </c>
       <c r="P32">
         <f>raw!M32</f>
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="Q32">
         <f>raw!N32</f>
-        <v>0</v>
+        <v>2294</v>
       </c>
       <c r="R32">
         <f>raw!O32</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S32">
         <f>raw!P32</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="T32">
         <f>raw!Q32</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="U32">
         <f>raw!R32</f>
-        <v>0</v>
+        <v>401</v>
       </c>
       <c r="V32">
         <f>raw!S32</f>
-        <v>0</v>
+        <v>381</v>
       </c>
       <c r="Y32" t="s">
         <v>67</v>
       </c>
       <c r="Z32">
         <f>raw!W32</f>
-        <v>0</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
@@ -4106,82 +7115,82 @@
       </c>
       <c r="B33">
         <f>raw!B33</f>
-        <v>0</v>
+        <v>17509</v>
       </c>
       <c r="C33">
         <f>raw!C33</f>
-        <v>0</v>
+        <v>17528</v>
       </c>
       <c r="D33">
         <f>raw!D33</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="E33">
         <f>raw!E33</f>
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="F33">
         <f>raw!F33</f>
-        <v>0</v>
+        <v>17374</v>
       </c>
       <c r="I33">
         <f>raw!G33</f>
-        <v>0</v>
+        <v>1390</v>
       </c>
       <c r="J33">
         <f>raw!H33</f>
-        <v>0</v>
+        <v>1036</v>
       </c>
       <c r="K33">
         <f>raw!I33</f>
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="L33">
         <f>raw!J33</f>
-        <v>0</v>
+        <v>2401</v>
       </c>
       <c r="M33">
         <f>raw!K33</f>
-        <v>0</v>
+        <v>694</v>
       </c>
       <c r="N33">
         <f>raw!L33</f>
-        <v>0</v>
+        <v>696</v>
       </c>
       <c r="P33">
         <f>raw!M33</f>
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="Q33">
         <f>raw!N33</f>
-        <v>0</v>
+        <v>2732</v>
       </c>
       <c r="R33">
         <f>raw!O33</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="S33">
         <f>raw!P33</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="T33">
         <f>raw!Q33</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="U33">
         <f>raw!R33</f>
-        <v>0</v>
+        <v>292</v>
       </c>
       <c r="V33">
         <f>raw!S33</f>
-        <v>0</v>
+        <v>367</v>
       </c>
       <c r="Y33" t="s">
         <v>68</v>
       </c>
       <c r="Z33">
         <f>raw!W33</f>
-        <v>0</v>
+        <v>607</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
@@ -4190,82 +7199,82 @@
       </c>
       <c r="B34">
         <f>raw!B34</f>
-        <v>0</v>
+        <v>10571</v>
       </c>
       <c r="C34">
         <f>raw!C34</f>
-        <v>0</v>
+        <v>10598</v>
       </c>
       <c r="D34">
         <f>raw!D34</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E34">
         <f>raw!E34</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F34">
         <f>raw!F34</f>
-        <v>0</v>
+        <v>10398</v>
       </c>
       <c r="I34">
         <f>raw!G34</f>
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="J34">
         <f>raw!H34</f>
-        <v>0</v>
+        <v>532</v>
       </c>
       <c r="K34">
         <f>raw!I34</f>
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="L34">
         <f>raw!J34</f>
-        <v>0</v>
+        <v>1242</v>
       </c>
       <c r="M34">
         <f>raw!K34</f>
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="N34">
         <f>raw!L34</f>
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="P34">
         <f>raw!M34</f>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Q34">
         <f>raw!N34</f>
-        <v>0</v>
+        <v>1231</v>
       </c>
       <c r="R34">
         <f>raw!O34</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S34">
         <f>raw!P34</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="T34">
         <f>raw!Q34</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U34">
         <f>raw!R34</f>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="V34">
         <f>raw!S34</f>
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="Y34" t="s">
         <v>69</v>
       </c>
       <c r="Z34">
         <f>raw!W34</f>
-        <v>0</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
@@ -4274,82 +7283,82 @@
       </c>
       <c r="B35">
         <f>raw!B35</f>
-        <v>0</v>
+        <v>68610</v>
       </c>
       <c r="C35">
         <f>raw!C35</f>
-        <v>0</v>
+        <v>69094</v>
       </c>
       <c r="D35">
         <f>raw!D35</f>
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="E35">
         <f>raw!E35</f>
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="F35">
         <f>raw!F35</f>
-        <v>0</v>
+        <v>66767</v>
       </c>
       <c r="I35">
         <f>raw!G35</f>
-        <v>0</v>
+        <v>5691</v>
       </c>
       <c r="J35">
         <f>raw!H35</f>
-        <v>0</v>
+        <v>4774</v>
       </c>
       <c r="K35">
         <f>raw!I35</f>
-        <v>0</v>
+        <v>917</v>
       </c>
       <c r="L35">
         <f>raw!J35</f>
-        <v>0</v>
+        <v>7301</v>
       </c>
       <c r="M35">
         <f>raw!K35</f>
-        <v>0</v>
+        <v>2754</v>
       </c>
       <c r="N35">
         <f>raw!L35</f>
-        <v>0</v>
+        <v>2937</v>
       </c>
       <c r="P35">
         <f>raw!M35</f>
-        <v>0</v>
+        <v>647</v>
       </c>
       <c r="Q35">
         <f>raw!N35</f>
-        <v>0</v>
+        <v>12052</v>
       </c>
       <c r="R35">
         <f>raw!O35</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="S35">
         <f>raw!P35</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="T35">
         <f>raw!Q35</f>
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="U35">
         <f>raw!R35</f>
-        <v>0</v>
+        <v>658</v>
       </c>
       <c r="V35">
         <f>raw!S35</f>
-        <v>0</v>
+        <v>776</v>
       </c>
       <c r="Y35" t="s">
         <v>71</v>
       </c>
       <c r="Z35">
         <f>raw!W35</f>
-        <v>0</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
@@ -4358,82 +7367,82 @@
       </c>
       <c r="B36">
         <f>raw!B36</f>
-        <v>0</v>
+        <v>21544</v>
       </c>
       <c r="C36">
         <f>raw!C36</f>
-        <v>0</v>
+        <v>21643</v>
       </c>
       <c r="D36">
         <f>raw!D36</f>
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="E36">
         <f>raw!E36</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F36">
         <f>raw!F36</f>
-        <v>0</v>
+        <v>21321</v>
       </c>
       <c r="I36">
         <f>raw!G36</f>
-        <v>0</v>
+        <v>1088</v>
       </c>
       <c r="J36">
         <f>raw!H36</f>
-        <v>0</v>
+        <v>959</v>
       </c>
       <c r="K36">
         <f>raw!I36</f>
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="L36">
         <f>raw!J36</f>
-        <v>0</v>
+        <v>2268</v>
       </c>
       <c r="M36">
         <f>raw!K36</f>
-        <v>0</v>
+        <v>661</v>
       </c>
       <c r="N36">
         <f>raw!L36</f>
-        <v>0</v>
+        <v>427</v>
       </c>
       <c r="P36">
         <f>raw!M36</f>
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="Q36">
         <f>raw!N36</f>
-        <v>0</v>
+        <v>1191</v>
       </c>
       <c r="R36">
         <f>raw!O36</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S36">
         <f>raw!P36</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T36">
         <f>raw!Q36</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="U36">
         <f>raw!R36</f>
-        <v>0</v>
+        <v>383</v>
       </c>
       <c r="V36">
         <f>raw!S36</f>
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="Y36" t="s">
         <v>72</v>
       </c>
       <c r="Z36">
         <f>raw!W36</f>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
@@ -4442,82 +7451,82 @@
       </c>
       <c r="B37">
         <f>raw!B37</f>
-        <v>0</v>
+        <v>31554</v>
       </c>
       <c r="C37">
         <f>raw!C37</f>
-        <v>0</v>
+        <v>31554</v>
       </c>
       <c r="D37">
         <f>raw!D37</f>
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="E37">
         <f>raw!E37</f>
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="F37">
         <f>raw!F37</f>
-        <v>0</v>
+        <v>30405</v>
       </c>
       <c r="I37">
         <f>raw!G37</f>
-        <v>0</v>
+        <v>2015</v>
       </c>
       <c r="J37">
         <f>raw!H37</f>
-        <v>0</v>
+        <v>1572</v>
       </c>
       <c r="K37">
         <f>raw!I37</f>
-        <v>0</v>
+        <v>443</v>
       </c>
       <c r="L37">
         <f>raw!J37</f>
-        <v>0</v>
+        <v>2854</v>
       </c>
       <c r="M37">
         <f>raw!K37</f>
-        <v>0</v>
+        <v>1167</v>
       </c>
       <c r="N37">
         <f>raw!L37</f>
-        <v>0</v>
+        <v>847</v>
       </c>
       <c r="P37">
         <f>raw!M37</f>
-        <v>0</v>
+        <v>373</v>
       </c>
       <c r="Q37">
         <f>raw!N37</f>
-        <v>0</v>
+        <v>5293</v>
       </c>
       <c r="R37">
         <f>raw!O37</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S37">
         <f>raw!P37</f>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="T37">
         <f>raw!Q37</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="U37">
         <f>raw!R37</f>
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="V37">
         <f>raw!S37</f>
-        <v>0</v>
+        <v>341</v>
       </c>
       <c r="Y37" t="s">
         <v>73</v>
       </c>
       <c r="Z37">
         <f>raw!W37</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
@@ -4526,82 +7535,82 @@
       </c>
       <c r="B38">
         <f>raw!B38</f>
-        <v>0</v>
+        <v>10385</v>
       </c>
       <c r="C38">
         <f>raw!C38</f>
-        <v>0</v>
+        <v>10498</v>
       </c>
       <c r="D38">
         <f>raw!D38</f>
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="E38">
         <f>raw!E38</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F38">
         <f>raw!F38</f>
-        <v>0</v>
+        <v>10480</v>
       </c>
       <c r="I38">
         <f>raw!G38</f>
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="J38">
         <f>raw!H38</f>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="K38">
         <f>raw!I38</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L38">
         <f>raw!J38</f>
-        <v>0</v>
+        <v>302</v>
       </c>
       <c r="M38">
         <f>raw!K38</f>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="N38">
         <f>raw!L38</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="P38">
         <f>raw!M38</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Q38">
         <f>raw!N38</f>
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="R38">
         <f>raw!O38</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S38">
         <f>raw!P38</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38">
         <f>raw!Q38</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U38">
         <f>raw!R38</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="V38">
         <f>raw!S38</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Y38" t="s">
         <v>75</v>
       </c>
       <c r="Z38">
         <f>raw!W38</f>
-        <v>0</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
@@ -4610,63 +7619,63 @@
       </c>
       <c r="B39">
         <f>raw!B40</f>
-        <v>0</v>
+        <v>11716</v>
       </c>
       <c r="C39">
         <f>raw!C40</f>
-        <v>0</v>
+        <v>11742</v>
       </c>
       <c r="D39">
         <f>raw!D40</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E39">
         <f>raw!E40</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F39">
         <f>raw!F40</f>
-        <v>0</v>
+        <v>10311</v>
       </c>
       <c r="I39">
         <f>raw!G40</f>
-        <v>0</v>
+        <v>289</v>
       </c>
       <c r="J39">
         <f>raw!H40</f>
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="K39">
         <f>raw!I40</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L39">
         <f>raw!J40</f>
-        <v>0</v>
+        <v>458</v>
       </c>
       <c r="M39">
         <f>raw!K40</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N39">
         <f>raw!L40</f>
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="P39">
         <f>raw!M40</f>
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="Q39">
         <f>raw!N40</f>
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="R39">
         <f>raw!O40</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S39">
         <f>raw!P40</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39">
         <f>raw!Q40</f>
@@ -4674,18 +7683,18 @@
       </c>
       <c r="U39">
         <f>raw!R40</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="V39">
         <f>raw!S40</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="Y39" t="s">
         <v>76</v>
       </c>
       <c r="Z39">
         <f>raw!W39</f>
-        <v>0</v>
+        <v>285</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
@@ -4694,63 +7703,63 @@
       </c>
       <c r="B40">
         <f>raw!B41</f>
-        <v>0</v>
+        <v>18838</v>
       </c>
       <c r="C40">
         <f>raw!C41</f>
-        <v>0</v>
+        <v>17377</v>
       </c>
       <c r="D40">
         <f>raw!D41</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E40">
         <f>raw!E41</f>
-        <v>0</v>
+        <v>1478</v>
       </c>
       <c r="F40">
         <f>raw!F41</f>
-        <v>0</v>
+        <v>13899</v>
       </c>
       <c r="I40">
         <f>raw!G41</f>
-        <v>0</v>
+        <v>2010</v>
       </c>
       <c r="J40">
         <f>raw!H41</f>
-        <v>0</v>
+        <v>1672</v>
       </c>
       <c r="K40">
         <f>raw!I41</f>
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="L40">
         <f>raw!J41</f>
-        <v>0</v>
+        <v>1983</v>
       </c>
       <c r="M40">
         <f>raw!K41</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N40">
         <f>raw!L41</f>
-        <v>0</v>
+        <v>1998</v>
       </c>
       <c r="P40">
         <f>raw!M41</f>
-        <v>0</v>
+        <v>356</v>
       </c>
       <c r="Q40">
         <f>raw!N41</f>
-        <v>0</v>
+        <v>523</v>
       </c>
       <c r="R40">
         <f>raw!O41</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S40">
         <f>raw!P41</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40">
         <f>raw!Q41</f>
@@ -4758,18 +7767,18 @@
       </c>
       <c r="U40">
         <f>raw!R41</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="V40">
         <f>raw!S41</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="Y40" t="s">
         <v>78</v>
       </c>
       <c r="Z40">
         <f>raw!W40</f>
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
@@ -4778,55 +7787,55 @@
       </c>
       <c r="B41">
         <f>raw!B42</f>
-        <v>0</v>
+        <v>3817</v>
       </c>
       <c r="C41">
         <f>raw!C42</f>
-        <v>0</v>
+        <v>3817</v>
       </c>
       <c r="D41">
         <f>raw!D42</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41">
         <f>raw!E42</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
         <f>raw!F42</f>
-        <v>0</v>
+        <v>3564</v>
       </c>
       <c r="I41">
         <f>raw!G42</f>
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="J41">
         <f>raw!H42</f>
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="K41">
         <f>raw!I42</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L41">
         <f>raw!J42</f>
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="M41">
         <f>raw!K42</f>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="N41">
         <f>raw!L42</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P41">
         <f>raw!M42</f>
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="Q41">
         <f>raw!N42</f>
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="R41">
         <f>raw!O42</f>
@@ -4842,18 +7851,18 @@
       </c>
       <c r="U41">
         <f>raw!R42</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="V41">
         <f>raw!S42</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="Y41" t="s">
         <v>80</v>
       </c>
       <c r="Z41">
         <f>raw!W41</f>
-        <v>0</v>
+        <v>528</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
@@ -4862,11 +7871,11 @@
       </c>
       <c r="B42">
         <f>raw!B43</f>
-        <v>0</v>
+        <v>4933</v>
       </c>
       <c r="C42">
         <f>raw!C43</f>
-        <v>0</v>
+        <v>4923</v>
       </c>
       <c r="D42">
         <f>raw!D43</f>
@@ -4874,43 +7883,43 @@
       </c>
       <c r="E42">
         <f>raw!E43</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F42">
         <f>raw!F43</f>
-        <v>0</v>
+        <v>4298</v>
       </c>
       <c r="I42">
         <f>raw!G43</f>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="J42">
         <f>raw!H43</f>
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="K42">
         <f>raw!I43</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L42">
         <f>raw!J43</f>
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="M42">
         <f>raw!K43</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N42">
         <f>raw!L43</f>
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="P42">
         <f>raw!M43</f>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="Q42">
         <f>raw!N43</f>
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="R42">
         <f>raw!O43</f>
@@ -4926,18 +7935,18 @@
       </c>
       <c r="U42">
         <f>raw!R43</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V42">
         <f>raw!S43</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y42" t="s">
         <v>82</v>
       </c>
       <c r="Z42">
         <f>raw!W42</f>
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
@@ -4946,55 +7955,55 @@
       </c>
       <c r="B43">
         <f>raw!B44</f>
-        <v>0</v>
+        <v>13490</v>
       </c>
       <c r="C43">
         <f>raw!C44</f>
-        <v>0</v>
+        <v>13487</v>
       </c>
       <c r="D43">
         <f>raw!D44</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E43">
         <f>raw!E44</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F43">
         <f>raw!F44</f>
-        <v>0</v>
+        <v>9573</v>
       </c>
       <c r="I43">
         <f>raw!G44</f>
-        <v>0</v>
+        <v>435</v>
       </c>
       <c r="J43">
         <f>raw!H44</f>
-        <v>0</v>
+        <v>297</v>
       </c>
       <c r="K43">
         <f>raw!I44</f>
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="L43">
         <f>raw!J44</f>
-        <v>0</v>
+        <v>431</v>
       </c>
       <c r="M43">
         <f>raw!K44</f>
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="N43">
         <f>raw!L44</f>
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="P43">
         <f>raw!M44</f>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="Q43">
         <f>raw!N44</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="R43">
         <f>raw!O44</f>
@@ -5010,18 +8019,18 @@
       </c>
       <c r="U43">
         <f>raw!R44</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="V43">
         <f>raw!S44</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y43" t="s">
         <v>84</v>
       </c>
       <c r="Z43">
         <f>raw!W43</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
@@ -5030,82 +8039,82 @@
       </c>
       <c r="B44">
         <f>raw!B39</f>
-        <v>0</v>
+        <v>7526</v>
       </c>
       <c r="C44">
         <f>raw!C39</f>
-        <v>0</v>
+        <v>7384</v>
       </c>
       <c r="D44">
         <f>raw!D39</f>
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="E44">
         <f>raw!E39</f>
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="F44">
         <f>raw!F39</f>
-        <v>0</v>
+        <v>7232</v>
       </c>
       <c r="I44">
         <f>raw!G39</f>
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="J44">
         <f>raw!H39</f>
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="K44">
         <f>raw!I39</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L44">
         <f>raw!J39</f>
-        <v>0</v>
+        <v>261</v>
       </c>
       <c r="M44">
         <f>raw!K39</f>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="N44">
         <f>raw!L39</f>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="P44">
         <f>raw!M39</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Q44">
         <f>raw!N39</f>
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="R44">
         <f>raw!O39</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S44">
         <f>raw!P39</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T44">
         <f>raw!Q39</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U44">
         <f>raw!R39</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="V44">
         <f>raw!S39</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="Y44" t="s">
         <v>86</v>
       </c>
       <c r="Z44">
         <f>raw!W44</f>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
@@ -5114,55 +8123,55 @@
       </c>
       <c r="B45">
         <f>raw!B45</f>
-        <v>0</v>
+        <v>7980</v>
       </c>
       <c r="C45">
         <f>raw!C45</f>
-        <v>0</v>
+        <v>7981</v>
       </c>
       <c r="D45">
         <f>raw!D45</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E45">
         <f>raw!E45</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F45">
         <f>raw!F45</f>
-        <v>0</v>
+        <v>7947</v>
       </c>
       <c r="I45">
         <f>raw!G45</f>
-        <v>0</v>
+        <v>364</v>
       </c>
       <c r="J45">
         <f>raw!H45</f>
-        <v>0</v>
+        <v>323</v>
       </c>
       <c r="K45">
         <f>raw!I45</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="L45">
         <f>raw!J45</f>
-        <v>0</v>
+        <v>606</v>
       </c>
       <c r="M45">
         <f>raw!K45</f>
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="N45">
         <f>raw!L45</f>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="P45">
         <f>raw!M45</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q45">
         <f>raw!N45</f>
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="R45">
         <f>raw!O45</f>
@@ -5170,26 +8179,26 @@
       </c>
       <c r="S45">
         <f>raw!P45</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45">
         <f>raw!Q45</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45">
         <f>raw!R45</f>
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="V45">
         <f>raw!S45</f>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="Y45" t="s">
         <v>88</v>
       </c>
       <c r="Z45">
         <f>raw!W45</f>
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
@@ -5198,75 +8207,75 @@
       </c>
       <c r="B46">
         <f>raw!B46</f>
-        <v>0</v>
+        <v>15570</v>
       </c>
       <c r="C46">
         <f>raw!C46</f>
-        <v>0</v>
+        <v>15615</v>
       </c>
       <c r="D46">
         <f>raw!D46</f>
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="E46">
         <f>raw!E46</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F46">
         <f>raw!F46</f>
-        <v>0</v>
+        <v>15534</v>
       </c>
       <c r="I46">
         <f>raw!G46</f>
-        <v>0</v>
+        <v>1496</v>
       </c>
       <c r="J46">
         <f>raw!H46</f>
-        <v>0</v>
+        <v>1170</v>
       </c>
       <c r="K46">
         <f>raw!I46</f>
-        <v>0</v>
+        <v>326</v>
       </c>
       <c r="L46">
         <f>raw!J46</f>
-        <v>0</v>
+        <v>2455</v>
       </c>
       <c r="M46">
         <f>raw!K46</f>
-        <v>0</v>
+        <v>766</v>
       </c>
       <c r="N46">
         <f>raw!L46</f>
-        <v>0</v>
+        <v>730</v>
       </c>
       <c r="P46">
         <f>raw!M46</f>
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="Q46">
         <f>raw!N46</f>
-        <v>0</v>
+        <v>1308</v>
       </c>
       <c r="R46">
         <f>raw!O46</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S46">
         <f>raw!P46</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="T46">
         <f>raw!Q46</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="U46">
         <f>raw!R46</f>
-        <v>0</v>
+        <v>399</v>
       </c>
       <c r="V46">
         <f>raw!S46</f>
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="Y46" t="s">
         <v>89</v>
@@ -5278,63 +8287,63 @@
       </c>
       <c r="B47">
         <f>raw!B47</f>
-        <v>0</v>
+        <v>30729</v>
       </c>
       <c r="C47">
         <f>raw!C47</f>
-        <v>0</v>
+        <v>30508</v>
       </c>
       <c r="D47">
         <f>raw!D47</f>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="E47">
         <f>raw!E47</f>
-        <v>0</v>
+        <v>331</v>
       </c>
       <c r="F47">
         <f>raw!F47</f>
-        <v>0</v>
+        <v>29832</v>
       </c>
       <c r="I47">
         <f>raw!G47</f>
-        <v>0</v>
+        <v>3747</v>
       </c>
       <c r="J47">
         <f>raw!H47</f>
-        <v>0</v>
+        <v>2948</v>
       </c>
       <c r="K47">
         <f>raw!I47</f>
-        <v>0</v>
+        <v>799</v>
       </c>
       <c r="L47">
         <f>raw!J47</f>
-        <v>0</v>
+        <v>5043</v>
       </c>
       <c r="M47">
         <f>raw!K47</f>
-        <v>0</v>
+        <v>1061</v>
       </c>
       <c r="N47">
         <f>raw!L47</f>
-        <v>0</v>
+        <v>2685</v>
       </c>
       <c r="P47">
         <f>raw!M47</f>
-        <v>0</v>
+        <v>279</v>
       </c>
       <c r="Q47">
         <f>raw!N47</f>
-        <v>0</v>
+        <v>1853</v>
       </c>
       <c r="R47">
         <f>raw!O47</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S47">
         <f>raw!P47</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="T47">
         <f>raw!Q47</f>
@@ -5342,11 +8351,11 @@
       </c>
       <c r="U47">
         <f>raw!R47</f>
-        <v>0</v>
+        <v>442</v>
       </c>
       <c r="V47">
         <f>raw!S47</f>
-        <v>0</v>
+        <v>791</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
@@ -5355,75 +8364,75 @@
       </c>
       <c r="B48">
         <f>raw!B48</f>
-        <v>0</v>
+        <v>22755</v>
       </c>
       <c r="C48">
         <f>raw!C48</f>
-        <v>0</v>
+        <v>22778</v>
       </c>
       <c r="D48">
         <f>raw!D48</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E48">
         <f>raw!E48</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F48">
         <f>raw!F48</f>
-        <v>0</v>
+        <v>22690</v>
       </c>
       <c r="I48">
         <f>raw!G48</f>
-        <v>0</v>
+        <v>1503</v>
       </c>
       <c r="J48">
         <f>raw!H48</f>
-        <v>0</v>
+        <v>1247</v>
       </c>
       <c r="K48">
         <f>raw!I48</f>
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="L48">
         <f>raw!J48</f>
-        <v>0</v>
+        <v>2288</v>
       </c>
       <c r="M48">
         <f>raw!K48</f>
-        <v>0</v>
+        <v>762</v>
       </c>
       <c r="N48">
         <f>raw!L48</f>
-        <v>0</v>
+        <v>741</v>
       </c>
       <c r="P48">
         <f>raw!M48</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="Q48">
         <f>raw!N48</f>
-        <v>0</v>
+        <v>1673</v>
       </c>
       <c r="R48">
         <f>raw!O48</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S48">
         <f>raw!P48</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="T48">
         <f>raw!Q48</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="U48">
         <f>raw!R48</f>
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="V48">
         <f>raw!S48</f>
-        <v>0</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
@@ -5432,75 +8441,75 @@
       </c>
       <c r="B49">
         <f>raw!B49</f>
-        <v>0</v>
+        <v>11118</v>
       </c>
       <c r="C49">
         <f>raw!C49</f>
-        <v>0</v>
+        <v>11175</v>
       </c>
       <c r="D49">
         <f>raw!D49</f>
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="E49">
         <f>raw!E49</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F49">
         <f>raw!F49</f>
-        <v>0</v>
+        <v>10543</v>
       </c>
       <c r="I49">
         <f>raw!G49</f>
-        <v>0</v>
+        <v>1186</v>
       </c>
       <c r="J49">
         <f>raw!H49</f>
-        <v>0</v>
+        <v>928</v>
       </c>
       <c r="K49">
         <f>raw!I49</f>
-        <v>0</v>
+        <v>258</v>
       </c>
       <c r="L49">
         <f>raw!J49</f>
-        <v>0</v>
+        <v>2328</v>
       </c>
       <c r="M49">
         <f>raw!K49</f>
-        <v>0</v>
+        <v>443</v>
       </c>
       <c r="N49">
         <f>raw!L49</f>
-        <v>0</v>
+        <v>742</v>
       </c>
       <c r="P49">
         <f>raw!M49</f>
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="Q49">
         <f>raw!N49</f>
-        <v>0</v>
+        <v>1046</v>
       </c>
       <c r="R49">
         <f>raw!O49</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S49">
         <f>raw!P49</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="T49">
         <f>raw!Q49</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="U49">
         <f>raw!R49</f>
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="V49">
         <f>raw!S49</f>
-        <v>0</v>
+        <v>274</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
@@ -5509,75 +8518,75 @@
       </c>
       <c r="B50">
         <f>raw!B50</f>
-        <v>0</v>
+        <v>26727</v>
       </c>
       <c r="C50">
         <f>raw!C50</f>
-        <v>0</v>
+        <v>26946</v>
       </c>
       <c r="D50">
         <f>raw!D50</f>
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="E50">
         <f>raw!E50</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="F50">
         <f>raw!F50</f>
-        <v>0</v>
+        <v>26659</v>
       </c>
       <c r="I50">
         <f>raw!G50</f>
-        <v>0</v>
+        <v>2820</v>
       </c>
       <c r="J50">
         <f>raw!H50</f>
-        <v>0</v>
+        <v>2385</v>
       </c>
       <c r="K50">
         <f>raw!I50</f>
-        <v>0</v>
+        <v>435</v>
       </c>
       <c r="L50">
         <f>raw!J50</f>
-        <v>0</v>
+        <v>3760</v>
       </c>
       <c r="M50">
         <f>raw!K50</f>
-        <v>0</v>
+        <v>1449</v>
       </c>
       <c r="N50">
         <f>raw!L50</f>
-        <v>0</v>
+        <v>1371</v>
       </c>
       <c r="P50">
         <f>raw!M50</f>
-        <v>0</v>
+        <v>406</v>
       </c>
       <c r="Q50">
         <f>raw!N50</f>
-        <v>0</v>
+        <v>4698</v>
       </c>
       <c r="R50">
         <f>raw!O50</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="S50">
         <f>raw!P50</f>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="T50">
         <f>raw!Q50</f>
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="U50">
         <f>raw!R50</f>
-        <v>0</v>
+        <v>374</v>
       </c>
       <c r="V50">
         <f>raw!S50</f>
-        <v>0</v>
+        <v>395</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
@@ -5586,75 +8595,75 @@
       </c>
       <c r="B51">
         <f>raw!B51</f>
-        <v>0</v>
+        <v>10594</v>
       </c>
       <c r="C51">
         <f>raw!C51</f>
-        <v>0</v>
+        <v>10604</v>
       </c>
       <c r="D51">
         <f>raw!D51</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E51">
         <f>raw!E51</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
         <f>raw!F51</f>
-        <v>0</v>
+        <v>10534</v>
       </c>
       <c r="I51">
         <f>raw!G51</f>
-        <v>0</v>
+        <v>453</v>
       </c>
       <c r="J51">
         <f>raw!H51</f>
-        <v>0</v>
+        <v>364</v>
       </c>
       <c r="K51">
         <f>raw!I51</f>
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="L51">
         <f>raw!J51</f>
-        <v>0</v>
+        <v>712</v>
       </c>
       <c r="M51">
         <f>raw!K51</f>
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="N51">
         <f>raw!L51</f>
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="P51">
         <f>raw!M51</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="Q51">
         <f>raw!N51</f>
-        <v>0</v>
+        <v>561</v>
       </c>
       <c r="R51">
         <f>raw!O51</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S51">
         <f>raw!P51</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T51">
         <f>raw!Q51</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U51">
         <f>raw!R51</f>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="V51">
         <f>raw!S51</f>
-        <v>0</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
@@ -5663,75 +8672,75 @@
       </c>
       <c r="B52">
         <f>raw!B52</f>
-        <v>0</v>
+        <v>22817</v>
       </c>
       <c r="C52">
         <f>raw!C52</f>
-        <v>0</v>
+        <v>22989</v>
       </c>
       <c r="D52">
         <f>raw!D52</f>
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="E52">
         <f>raw!E52</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F52">
         <f>raw!F52</f>
-        <v>0</v>
+        <v>22323</v>
       </c>
       <c r="I52">
         <f>raw!G52</f>
-        <v>0</v>
+        <v>1646</v>
       </c>
       <c r="J52">
         <f>raw!H52</f>
-        <v>0</v>
+        <v>1235</v>
       </c>
       <c r="K52">
         <f>raw!I52</f>
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="L52">
         <f>raw!J52</f>
-        <v>0</v>
+        <v>2652</v>
       </c>
       <c r="M52">
         <f>raw!K52</f>
-        <v>0</v>
+        <v>760</v>
       </c>
       <c r="N52">
         <f>raw!L52</f>
-        <v>0</v>
+        <v>886</v>
       </c>
       <c r="P52">
         <f>raw!M52</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="Q52">
         <f>raw!N52</f>
-        <v>0</v>
+        <v>1091</v>
       </c>
       <c r="R52">
         <f>raw!O52</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S52">
         <f>raw!P52</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="T52">
         <f>raw!Q52</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="U52">
         <f>raw!R52</f>
-        <v>0</v>
+        <v>383</v>
       </c>
       <c r="V52">
         <f>raw!S52</f>
-        <v>0</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
@@ -5740,55 +8749,55 @@
       </c>
       <c r="B53">
         <f>raw!B53</f>
-        <v>0</v>
+        <v>10768</v>
       </c>
       <c r="C53">
         <f>raw!C53</f>
-        <v>0</v>
+        <v>10792</v>
       </c>
       <c r="D53">
         <f>raw!D53</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E53">
         <f>raw!E53</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F53">
         <f>raw!F53</f>
-        <v>0</v>
+        <v>10694</v>
       </c>
       <c r="I53">
         <f>raw!G53</f>
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="J53">
         <f>raw!H53</f>
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="K53">
         <f>raw!I53</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L53">
         <f>raw!J53</f>
-        <v>0</v>
+        <v>611</v>
       </c>
       <c r="M53">
         <f>raw!K53</f>
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="N53">
         <f>raw!L53</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="P53">
         <f>raw!M53</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Q53">
         <f>raw!N53</f>
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="R53">
         <f>raw!O53</f>
@@ -5796,19 +8805,19 @@
       </c>
       <c r="S53">
         <f>raw!P53</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T53">
         <f>raw!Q53</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U53">
         <f>raw!R53</f>
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="V53">
         <f>raw!S53</f>
-        <v>0</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
@@ -5817,75 +8826,75 @@
       </c>
       <c r="B54">
         <f>raw!B54</f>
-        <v>0</v>
+        <v>13962</v>
       </c>
       <c r="C54">
         <f>raw!C54</f>
-        <v>0</v>
+        <v>14023</v>
       </c>
       <c r="D54">
         <f>raw!D54</f>
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="E54">
         <f>raw!E54</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F54">
         <f>raw!F54</f>
-        <v>0</v>
+        <v>13914</v>
       </c>
       <c r="I54">
         <f>raw!G54</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J54">
         <f>raw!H54</f>
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="K54">
         <f>raw!I54</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L54">
         <f>raw!J54</f>
-        <v>0</v>
+        <v>531</v>
       </c>
       <c r="M54">
         <f>raw!K54</f>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="N54">
         <f>raw!L54</f>
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="P54">
         <f>raw!M54</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Q54">
         <f>raw!N54</f>
-        <v>0</v>
+        <v>658</v>
       </c>
       <c r="R54">
         <f>raw!O54</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S54">
         <f>raw!P54</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T54">
         <f>raw!Q54</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U54">
         <f>raw!R54</f>
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="V54">
         <f>raw!S54</f>
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
@@ -5894,75 +8903,75 @@
       </c>
       <c r="B55">
         <f>raw!B55</f>
-        <v>0</v>
+        <v>14535</v>
       </c>
       <c r="C55">
         <f>raw!C55</f>
-        <v>0</v>
+        <v>14659</v>
       </c>
       <c r="D55">
         <f>raw!D55</f>
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="E55">
         <f>raw!E55</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F55">
         <f>raw!F55</f>
-        <v>0</v>
+        <v>14239</v>
       </c>
       <c r="I55">
         <f>raw!G55</f>
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="J55">
         <f>raw!H55</f>
-        <v>0</v>
+        <v>448</v>
       </c>
       <c r="K55">
         <f>raw!I55</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="L55">
         <f>raw!J55</f>
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="M55">
         <f>raw!K55</f>
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="N55">
         <f>raw!L55</f>
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="P55">
         <f>raw!M55</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="Q55">
         <f>raw!N55</f>
-        <v>0</v>
+        <v>738</v>
       </c>
       <c r="R55">
         <f>raw!O55</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S55">
         <f>raw!P55</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T55">
         <f>raw!Q55</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U55">
         <f>raw!R55</f>
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="V55">
         <f>raw!S55</f>
-        <v>0</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
